--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Neuropatía (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Neuropatía (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.99701404880359</v>
+        <v>16.01723383084577</v>
       </c>
       <c r="H2" t="n">
-        <v>9.534457142857139</v>
+        <v>9.447999999999995</v>
       </c>
       <c r="I2" t="n">
-        <v>24.37189523809525</v>
+        <v>24.312</v>
       </c>
       <c r="J2" t="n">
-        <v>22.43647378731447</v>
+        <v>22.18702487562175</v>
       </c>
       <c r="K2" t="n">
-        <v>14.66914475888175</v>
+        <v>14.42800000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>30.66773492063492</v>
+        <v>30.23200000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>12.68491403280607</v>
+        <v>13.35351243781095</v>
       </c>
       <c r="N2" t="n">
-        <v>9.086493449138349</v>
+        <v>9.451999999999995</v>
       </c>
       <c r="O2" t="n">
-        <v>16.30026186437706</v>
+        <v>16.88</v>
       </c>
       <c r="P2" t="n">
-        <v>7.448433970667758</v>
+        <v>7.840298507462672</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.794716467653275</v>
+        <v>5.232000000000003</v>
       </c>
       <c r="R2" t="n">
-        <v>10.25298784575866</v>
+        <v>10.39999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>4.731003787995636</v>
+        <v>4.457691542288549</v>
       </c>
       <c r="T2" t="n">
-        <v>2.776149275318863</v>
+        <v>2.535999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>6.69471530985891</v>
+        <v>6.744000000000005</v>
       </c>
       <c r="V2" t="n">
-        <v>2.197289577987642</v>
+        <v>2.129512437810932</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8472761904761902</v>
+        <v>0.8159999999999998</v>
       </c>
       <c r="X2" t="n">
-        <v>3.862542613681352</v>
+        <v>3.844</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4246545615860604</v>
+        <v>0.4065273631840789</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.10924875234501</v>
+        <v>1.036</v>
       </c>
     </row>
     <row r="3">
@@ -682,58 +682,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01448756218905472</v>
+        <v>0.06597014925373132</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01266666666666667</v>
+        <v>0.012</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01466666666666666</v>
+        <v>0.132</v>
       </c>
       <c r="M3" t="n">
-        <v>2.410739358761745</v>
+        <v>2.206766169154223</v>
       </c>
       <c r="N3" t="n">
-        <v>0.784297639397638</v>
+        <v>0.6720000000000005</v>
       </c>
       <c r="O3" t="n">
-        <v>4.273333333333335</v>
+        <v>3.984</v>
       </c>
       <c r="P3" t="n">
-        <v>2.002538419016025</v>
+        <v>1.953810945273631</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7720000000000005</v>
+        <v>0.7240000000000005</v>
       </c>
       <c r="R3" t="n">
-        <v>3.5336</v>
+        <v>3.631999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>1.563779151859746</v>
+        <v>1.536716417910446</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4042916666666659</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>3.079809523809523</v>
+        <v>3.064000000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9790148901954844</v>
+        <v>0.9618905472636808</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2189999999999999</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>2.030285714285714</v>
+        <v>2.044</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2725492537313421</v>
+        <v>0.267303482587063</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002333333333333334</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7819999999999989</v>
+        <v>0.7959999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -765,58 +765,58 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.1035621890547256</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03733333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="L4" t="n">
-        <v>0.032</v>
+        <v>0.192</v>
       </c>
       <c r="M4" t="n">
-        <v>4.876484245439471</v>
+        <v>5.082547263681581</v>
       </c>
       <c r="N4" t="n">
-        <v>2.274740740740739</v>
+        <v>2.376000000000002</v>
       </c>
       <c r="O4" t="n">
-        <v>7.899111111111112</v>
+        <v>8.175999999999998</v>
       </c>
       <c r="P4" t="n">
-        <v>4.151104477611915</v>
+        <v>4.158208955223869</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.941333333333333</v>
+        <v>1.968</v>
       </c>
       <c r="R4" t="n">
-        <v>6.982</v>
+        <v>6.991999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>3.28581343283581</v>
+        <v>3.27315422885571</v>
       </c>
       <c r="T4" t="n">
-        <v>1.404182683982683</v>
+        <v>1.488</v>
       </c>
       <c r="U4" t="n">
-        <v>5.51466666666666</v>
+        <v>5.616000000000005</v>
       </c>
       <c r="V4" t="n">
-        <v>2.018829187396343</v>
+        <v>2.019024875621884</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6280000000000006</v>
+        <v>0.6080000000000005</v>
       </c>
       <c r="X4" t="n">
-        <v>3.476999999999999</v>
+        <v>3.511999999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4764665159053212</v>
+        <v>0.4953631840796016</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.149500000000001</v>
+        <v>1.192000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.228799901085257</v>
+        <v>2.267024875621876</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8817032573091393</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>4.084988264659318</v>
+        <v>3.976000000000002</v>
       </c>
       <c r="M5" t="n">
-        <v>2.013618463239352</v>
+        <v>1.995820895522385</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7250381914381911</v>
+        <v>0.7360000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>3.740045117845122</v>
+        <v>3.736000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>1.725354292031903</v>
+        <v>1.714348258706467</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5631142857142859</v>
+        <v>0.5920000000000004</v>
       </c>
       <c r="R5" t="n">
-        <v>3.236749999999995</v>
+        <v>3.272</v>
       </c>
       <c r="S5" t="n">
-        <v>1.371614850351418</v>
+        <v>1.370945273631841</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3158436527524759</v>
+        <v>0.2719999999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>2.677381481481487</v>
+        <v>2.663999999999997</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8351118625247982</v>
+        <v>0.8397213930348252</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04231515151515151</v>
+        <v>0.048</v>
       </c>
       <c r="X5" t="n">
-        <v>1.782971062271061</v>
+        <v>1.823999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.217061410605132</v>
+        <v>0.2201393034825858</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7569865856365849</v>
+        <v>0.7919999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.03777960199004</v>
+        <v>6.170109452736309</v>
       </c>
       <c r="H6" t="n">
-        <v>3.048638095238094</v>
+        <v>3.131999999999998</v>
       </c>
       <c r="I6" t="n">
-        <v>9.746083333333345</v>
+        <v>9.776000000000009</v>
       </c>
       <c r="J6" t="n">
-        <v>8.75637669062095</v>
+        <v>8.797572139303465</v>
       </c>
       <c r="K6" t="n">
-        <v>4.843741269841271</v>
+        <v>4.964000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>12.95040902430903</v>
+        <v>13.108</v>
       </c>
       <c r="M6" t="n">
-        <v>7.427131977821125</v>
+        <v>7.003800995024872</v>
       </c>
       <c r="N6" t="n">
-        <v>3.919441558441558</v>
+        <v>3.928000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>11.28791671581236</v>
+        <v>10.532</v>
       </c>
       <c r="P6" t="n">
-        <v>5.573590045253005</v>
+        <v>5.347184079601983</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.169150106103046</v>
+        <v>3.08</v>
       </c>
       <c r="R6" t="n">
-        <v>8.760294801075448</v>
+        <v>8.095999999999993</v>
       </c>
       <c r="S6" t="n">
-        <v>4.193240190668909</v>
+        <v>3.926069651741281</v>
       </c>
       <c r="T6" t="n">
-        <v>2.248006870906871</v>
+        <v>2.044</v>
       </c>
       <c r="U6" t="n">
-        <v>6.440027033973576</v>
+        <v>6.019999999999995</v>
       </c>
       <c r="V6" t="n">
-        <v>2.387183013223866</v>
+        <v>2.238706467661687</v>
       </c>
       <c r="W6" t="n">
-        <v>1.046320779220779</v>
+        <v>1.028</v>
       </c>
       <c r="X6" t="n">
-        <v>3.911905450844189</v>
+        <v>3.824</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5241526431168898</v>
+        <v>0.5201393034825863</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.168438147945459</v>
+        <v>1.204000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>16.23636421176942</v>
+        <v>15.85725373134329</v>
       </c>
       <c r="K7" t="n">
-        <v>8.972876608187141</v>
+        <v>8.639999999999997</v>
       </c>
       <c r="L7" t="n">
-        <v>25.46145227909344</v>
+        <v>25.16</v>
       </c>
       <c r="M7" t="n">
-        <v>21.81681182974005</v>
+        <v>21.76147263681579</v>
       </c>
       <c r="N7" t="n">
-        <v>14.12333333333334</v>
+        <v>14.14800000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>29.70451111111108</v>
+        <v>29.93200000000002</v>
       </c>
       <c r="P7" t="n">
-        <v>12.96688976246708</v>
+        <v>12.95749253731343</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.215624514048042</v>
+        <v>9.183999999999996</v>
       </c>
       <c r="R7" t="n">
-        <v>16.39773758493827</v>
+        <v>16.56400000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>6.96628560750048</v>
+        <v>7.340457711442772</v>
       </c>
       <c r="T7" t="n">
-        <v>4.724976284826284</v>
+        <v>4.948</v>
       </c>
       <c r="U7" t="n">
-        <v>9.575999586368569</v>
+        <v>9.736000000000008</v>
       </c>
       <c r="V7" t="n">
-        <v>3.377686828370509</v>
+        <v>3.311900497512431</v>
       </c>
       <c r="W7" t="n">
-        <v>1.58397619047619</v>
+        <v>1.524</v>
       </c>
       <c r="X7" t="n">
-        <v>5.20440121012334</v>
+        <v>5.259999999999998</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6597753203660559</v>
+        <v>0.6495522388059688</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.07442178932178932</v>
+        <v>0.02</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.562747803616121</v>
+        <v>1.631999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1106,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>78.75958872305137</v>
+        <v>78.35669651741287</v>
       </c>
       <c r="N8" t="n">
-        <v>63.39577777777791</v>
+        <v>62.95999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>89.7402666666668</v>
+        <v>89.67599999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>10.30024449182658</v>
+        <v>10.46923383084576</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.122000000000001</v>
+        <v>4.288</v>
       </c>
       <c r="R8" t="n">
-        <v>18.07660000000003</v>
+        <v>18.13599999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>1.528885572139304</v>
+        <v>1.608398009950247</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2280000000000001</v>
+        <v>0.04800000000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>4.934888888888885</v>
+        <v>5.024000000000002</v>
       </c>
       <c r="V8" t="n">
-        <v>0.221788833609729</v>
+        <v>0.234467661691542</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.106666666666667</v>
+        <v>1.14</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0242155887230514</v>
+        <v>0.01900497512437809</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2419999999999997</v>
+        <v>0.2079999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1180,58 +1180,58 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.770658728943786</v>
+        <v>9.815402985074611</v>
       </c>
       <c r="K9" t="n">
-        <v>5.211782839382842</v>
+        <v>5.267999999999996</v>
       </c>
       <c r="L9" t="n">
-        <v>15.34217806267806</v>
+        <v>15.336</v>
       </c>
       <c r="M9" t="n">
-        <v>7.824068546158096</v>
+        <v>7.857054726368147</v>
       </c>
       <c r="N9" t="n">
-        <v>4.018321508121508</v>
+        <v>3.932000000000002</v>
       </c>
       <c r="O9" t="n">
-        <v>12.25520000000002</v>
+        <v>12.232</v>
       </c>
       <c r="P9" t="n">
-        <v>6.138308284798884</v>
+        <v>6.024179104477604</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.284377777777777</v>
+        <v>3.211999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>9.573744877344881</v>
+        <v>9.391999999999996</v>
       </c>
       <c r="S9" t="n">
-        <v>4.680760618518512</v>
+        <v>4.519920398009943</v>
       </c>
       <c r="T9" t="n">
-        <v>2.336498140748142</v>
+        <v>2.268000000000002</v>
       </c>
       <c r="U9" t="n">
-        <v>7.04748272977726</v>
+        <v>6.848000000000005</v>
       </c>
       <c r="V9" t="n">
-        <v>2.648071947155527</v>
+        <v>2.544457711442772</v>
       </c>
       <c r="W9" t="n">
-        <v>1.212219480519481</v>
+        <v>1.196000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>4.300863860979617</v>
+        <v>4.084</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5957626145866898</v>
+        <v>0.5865273631840787</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.299486885559812</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>56.84845739594832</v>
+        <v>58.27619900497503</v>
       </c>
       <c r="K10" t="n">
-        <v>40.55583767343768</v>
+        <v>41.35600000000002</v>
       </c>
       <c r="L10" t="n">
-        <v>73.36070177970177</v>
+        <v>74.18799999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>28.05622399115523</v>
+        <v>27.90250746268652</v>
       </c>
       <c r="N10" t="n">
-        <v>19.2251164021164</v>
+        <v>19.056</v>
       </c>
       <c r="O10" t="n">
-        <v>35.56217048780827</v>
+        <v>34.88799999999998</v>
       </c>
       <c r="P10" t="n">
-        <v>4.118640132669976</v>
+        <v>4.008019900497501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.066666666666667</v>
+        <v>0.8880000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>9.627433333333325</v>
+        <v>9.632000000000003</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6841172470978439</v>
+        <v>0.6426666666666661</v>
       </c>
       <c r="T10" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.534644444444445</v>
+        <v>2.495999999999999</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1071770828397693</v>
+        <v>0.1035820895522388</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7209333333333339</v>
+        <v>0.7320000000000007</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.005458202576859288</v>
+        <v>0.007383084577114415</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1267999999999999</v>
+        <v>0.1480000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>24.92153461265091</v>
+        <v>24.52109452736305</v>
       </c>
       <c r="H11" t="n">
-        <v>15.35013333333334</v>
+        <v>15.04400000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>36.18117619047618</v>
+        <v>35.72399999999998</v>
       </c>
       <c r="J11" t="n">
-        <v>29.89140674304494</v>
+        <v>28.34899502487555</v>
       </c>
       <c r="K11" t="n">
-        <v>21.50026272431271</v>
+        <v>20.67600000000002</v>
       </c>
       <c r="L11" t="n">
-        <v>35.93436299996299</v>
+        <v>35.46400000000003</v>
       </c>
       <c r="M11" t="n">
-        <v>12.67946443160573</v>
+        <v>13.49199999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>9.129870148365049</v>
+        <v>10.09999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>16.30281741993261</v>
+        <v>16.93599999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>7.116009761239795</v>
+        <v>6.59014925373134</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.718242315661474</v>
+        <v>3.652</v>
       </c>
       <c r="R11" t="n">
-        <v>10.18558678015759</v>
+        <v>10.056</v>
       </c>
       <c r="S11" t="n">
-        <v>3.134363655388276</v>
+        <v>3.148557213930346</v>
       </c>
       <c r="T11" t="n">
-        <v>1.200528571428573</v>
+        <v>1.180000000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>5.721801021125234</v>
+        <v>5.571999999999999</v>
       </c>
       <c r="V11" t="n">
-        <v>1.211889642695611</v>
+        <v>1.226069651741292</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08775757575757578</v>
+        <v>0.104</v>
       </c>
       <c r="X11" t="n">
-        <v>2.759997113997114</v>
+        <v>2.735999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2062787878787876</v>
+        <v>0.2074626865671637</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7921666666666657</v>
+        <v>0.7999999999999997</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>10.74687893864013</v>
+        <v>10.13934328358209</v>
       </c>
       <c r="E12" t="n">
-        <v>5.740000000000012</v>
+        <v>5.215999999999997</v>
       </c>
       <c r="F12" t="n">
-        <v>17.92666666666663</v>
+        <v>16.70800000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>14.21544067756455</v>
+        <v>15.29546268656714</v>
       </c>
       <c r="H12" t="n">
-        <v>8.312552380952383</v>
+        <v>8.839999999999998</v>
       </c>
       <c r="I12" t="n">
-        <v>22.43406825396826</v>
+        <v>22.95999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>10.37552995340756</v>
+        <v>10.73156218905472</v>
       </c>
       <c r="K12" t="n">
-        <v>6.288490476190471</v>
+        <v>6.356000000000003</v>
       </c>
       <c r="L12" t="n">
-        <v>15.01526809329158</v>
+        <v>15.08</v>
       </c>
       <c r="M12" t="n">
-        <v>7.000947176037872</v>
+        <v>7.516955223880584</v>
       </c>
       <c r="N12" t="n">
-        <v>4.81655954330455</v>
+        <v>4.823999999999997</v>
       </c>
       <c r="O12" t="n">
-        <v>10.07609457571262</v>
+        <v>10.596</v>
       </c>
       <c r="P12" t="n">
-        <v>4.715962951067747</v>
+        <v>5.233771144278595</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.599037767873682</v>
+        <v>2.932</v>
       </c>
       <c r="R12" t="n">
-        <v>6.871894077638762</v>
+        <v>7.556</v>
       </c>
       <c r="S12" t="n">
-        <v>3.209211475741319</v>
+        <v>3.522507462686565</v>
       </c>
       <c r="T12" t="n">
-        <v>1.645999431450903</v>
+        <v>1.896</v>
       </c>
       <c r="U12" t="n">
-        <v>5.049899695449818</v>
+        <v>5.187999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>1.784247219497834</v>
+        <v>1.778288557213928</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7595786775316188</v>
+        <v>0.7240000000000002</v>
       </c>
       <c r="X12" t="n">
-        <v>3.07274341437791</v>
+        <v>3.148000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4115954768174315</v>
+        <v>0.3760796019900486</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.078016348005915</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="13">
@@ -1503,67 +1503,67 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>68.47215163468363</v>
+        <v>68.57767164179099</v>
       </c>
       <c r="H13" t="n">
-        <v>49.90993333333333</v>
+        <v>49.672</v>
       </c>
       <c r="I13" t="n">
-        <v>82.85729494949493</v>
+        <v>83.03599999999993</v>
       </c>
       <c r="J13" t="n">
-        <v>15.30463159024503</v>
+        <v>15.26346268656715</v>
       </c>
       <c r="K13" t="n">
-        <v>8.782522222222223</v>
+        <v>8.724000000000002</v>
       </c>
       <c r="L13" t="n">
-        <v>21.40453554989073</v>
+        <v>21.284</v>
       </c>
       <c r="M13" t="n">
-        <v>3.766006342014149</v>
+        <v>3.77810945273631</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7197384706094377</v>
+        <v>0.7360000000000002</v>
       </c>
       <c r="O13" t="n">
-        <v>8.519544203467136</v>
+        <v>8.568000000000005</v>
       </c>
       <c r="P13" t="n">
-        <v>1.022220674405748</v>
+        <v>1.032059701492537</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.443914285714287</v>
+        <v>3.472</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2999877082839756</v>
+        <v>0.2920199004975118</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.48733899063899</v>
+        <v>1.492</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07520409802101335</v>
+        <v>0.06919402985074614</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4995946608946608</v>
+        <v>0.4679999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.009662451618211514</v>
+        <v>0.006487562189054707</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1493123043623042</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="14">
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>35.666915257048</v>
+        <v>35.26171144278594</v>
       </c>
       <c r="H14" t="n">
-        <v>23.15853333333334</v>
+        <v>22.38000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>50.40896666666666</v>
+        <v>50.13999999999998</v>
       </c>
       <c r="J14" t="n">
-        <v>32.04179666188735</v>
+        <v>31.88286567164169</v>
       </c>
       <c r="K14" t="n">
-        <v>26.27482831427831</v>
+        <v>25.88</v>
       </c>
       <c r="L14" t="n">
-        <v>37.17043253805016</v>
+        <v>36.88</v>
       </c>
       <c r="M14" t="n">
-        <v>11.76055305172699</v>
+        <v>11.26403980099501</v>
       </c>
       <c r="N14" t="n">
-        <v>6.922317595108578</v>
+        <v>6.528000000000002</v>
       </c>
       <c r="O14" t="n">
-        <v>16.08039251520771</v>
+        <v>16.28800000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>4.295491755508167</v>
+        <v>4.174626865671635</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.190854545454545</v>
+        <v>1.344</v>
       </c>
       <c r="R14" t="n">
-        <v>7.944608771929817</v>
+        <v>7.768000000000004</v>
       </c>
       <c r="S14" t="n">
-        <v>1.541487451630734</v>
+        <v>1.539781094527362</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1005</v>
+        <v>0.172</v>
       </c>
       <c r="U14" t="n">
-        <v>3.732315343915344</v>
+        <v>3.780000000000002</v>
       </c>
       <c r="V14" t="n">
-        <v>0.462657269209507</v>
+        <v>0.478845771144278</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="X14" t="n">
-        <v>1.497855555555555</v>
+        <v>1.563999999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06651227197346596</v>
+        <v>0.07036815920398003</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3378333333333329</v>
+        <v>0.4039999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1669,67 +1669,67 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.167660294542374</v>
+        <v>2.118308457711427</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7307118437118438</v>
+        <v>0.7799999999999998</v>
       </c>
       <c r="I15" t="n">
-        <v>3.882825396825398</v>
+        <v>3.864</v>
       </c>
       <c r="J15" t="n">
-        <v>1.929430302084969</v>
+        <v>1.980616915422884</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7086773064626002</v>
+        <v>0.7280000000000005</v>
       </c>
       <c r="L15" t="n">
-        <v>3.390434217634215</v>
+        <v>3.504</v>
       </c>
       <c r="M15" t="n">
-        <v>1.675486540254962</v>
+        <v>1.672517412935323</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5101493708905471</v>
+        <v>0.488</v>
       </c>
       <c r="O15" t="n">
-        <v>3.129790433749259</v>
+        <v>3.160000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>1.424003795835635</v>
+        <v>1.435601990049749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3890900432900434</v>
+        <v>0.3839999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>2.63907142857143</v>
+        <v>2.787999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>1.202999225732807</v>
+        <v>1.228358208955224</v>
       </c>
       <c r="T15" t="n">
-        <v>0.289130321639145</v>
+        <v>0.28</v>
       </c>
       <c r="U15" t="n">
-        <v>2.269674358974358</v>
+        <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7302116244175937</v>
+        <v>0.7313233830845763</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1413333333333334</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="X15" t="n">
-        <v>1.551764502164502</v>
+        <v>1.691999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1952238253178542</v>
+        <v>0.1997014925373121</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6060384615384624</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="16">
@@ -1752,67 +1752,67 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.032766998341615</v>
+        <v>6.190129353233822</v>
       </c>
       <c r="H16" t="n">
-        <v>3.060066666666665</v>
+        <v>3.175999999999998</v>
       </c>
       <c r="I16" t="n">
-        <v>9.770750000000012</v>
+        <v>9.864000000000006</v>
       </c>
       <c r="J16" t="n">
-        <v>8.746470033430711</v>
+        <v>8.807442786069631</v>
       </c>
       <c r="K16" t="n">
-        <v>4.810670370370373</v>
+        <v>4.907999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>12.97666299256299</v>
+        <v>13.184</v>
       </c>
       <c r="M16" t="n">
-        <v>7.400818876660263</v>
+        <v>6.98312437810945</v>
       </c>
       <c r="N16" t="n">
-        <v>3.885508225108226</v>
+        <v>3.876000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>11.28902782692347</v>
+        <v>10.544</v>
       </c>
       <c r="P16" t="n">
-        <v>5.566423654982137</v>
+        <v>5.359999999999993</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.191259197012137</v>
+        <v>3.116</v>
       </c>
       <c r="R16" t="n">
-        <v>8.756128134408781</v>
+        <v>8.167999999999996</v>
       </c>
       <c r="S16" t="n">
-        <v>4.194814817534581</v>
+        <v>3.922587064676603</v>
       </c>
       <c r="T16" t="n">
-        <v>2.201050521700521</v>
+        <v>2.012</v>
       </c>
       <c r="U16" t="n">
-        <v>6.445672536619078</v>
+        <v>6.107999999999997</v>
       </c>
       <c r="V16" t="n">
-        <v>2.385808412479116</v>
+        <v>2.242189054726362</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9830076479076478</v>
+        <v>0.9919999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>3.912322117510856</v>
+        <v>3.864</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5218872923813901</v>
+        <v>0.5196616915422881</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.169918917176228</v>
+        <v>1.204000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>10.22371697070204</v>
+        <v>10.36923383084577</v>
       </c>
       <c r="E17" t="n">
-        <v>5.718000000000013</v>
+        <v>5.719999999999996</v>
       </c>
       <c r="F17" t="n">
-        <v>16.41555555555551</v>
+        <v>16.65600000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>14.35996455816156</v>
+        <v>15.73068656716416</v>
       </c>
       <c r="H17" t="n">
-        <v>8.496152380952383</v>
+        <v>9.372</v>
       </c>
       <c r="I17" t="n">
-        <v>22.38823492063492</v>
+        <v>23.56399999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>10.4459047461107</v>
+        <v>10.91908457711443</v>
       </c>
       <c r="K17" t="n">
-        <v>6.600223809523808</v>
+        <v>7.064000000000004</v>
       </c>
       <c r="L17" t="n">
-        <v>15.16808396630744</v>
+        <v>15.352</v>
       </c>
       <c r="M17" t="n">
-        <v>7.056105032014607</v>
+        <v>7.641791044776104</v>
       </c>
       <c r="N17" t="n">
-        <v>4.900115098860105</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>10.08682790904596</v>
+        <v>10.504</v>
       </c>
       <c r="P17" t="n">
-        <v>4.726027235870837</v>
+        <v>5.210925373134321</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.613422383258297</v>
+        <v>2.952000000000001</v>
       </c>
       <c r="R17" t="n">
-        <v>6.867094077638763</v>
+        <v>7.415999999999998</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208849745928843</v>
+        <v>3.485950248756217</v>
       </c>
       <c r="T17" t="n">
-        <v>1.649598382499853</v>
+        <v>1.876</v>
       </c>
       <c r="U17" t="n">
-        <v>5.06477482772495</v>
+        <v>5.268000000000001</v>
       </c>
       <c r="V17" t="n">
-        <v>1.780540283279455</v>
+        <v>1.801213930348256</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7029596299125714</v>
+        <v>0.74</v>
       </c>
       <c r="X17" t="n">
-        <v>3.06844341437791</v>
+        <v>3.12</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.4124704353580617</v>
+        <v>0.3765771144278595</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.023840508439653</v>
+        <v>0.9520000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1927,58 +1927,58 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1035621890547256</v>
       </c>
       <c r="K18" t="n">
-        <v>0.028</v>
+        <v>0.04</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="M18" t="n">
-        <v>4.88244776119403</v>
+        <v>5.082547263681581</v>
       </c>
       <c r="N18" t="n">
-        <v>2.257111111111109</v>
+        <v>2.376000000000002</v>
       </c>
       <c r="O18" t="n">
-        <v>7.901777777777779</v>
+        <v>8.175999999999998</v>
       </c>
       <c r="P18" t="n">
-        <v>4.152192371475929</v>
+        <v>4.158208955223869</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.927999999999999</v>
+        <v>1.968</v>
       </c>
       <c r="R18" t="n">
-        <v>6.982</v>
+        <v>6.991999999999999</v>
       </c>
       <c r="S18" t="n">
-        <v>3.28581343283581</v>
+        <v>3.27315422885571</v>
       </c>
       <c r="T18" t="n">
-        <v>1.474316666666665</v>
+        <v>1.488</v>
       </c>
       <c r="U18" t="n">
-        <v>5.529333333333327</v>
+        <v>5.616000000000005</v>
       </c>
       <c r="V18" t="n">
-        <v>2.021021558872297</v>
+        <v>2.019024875621884</v>
       </c>
       <c r="W18" t="n">
-        <v>0.6320000000000006</v>
+        <v>0.6080000000000005</v>
       </c>
       <c r="X18" t="n">
-        <v>3.520999999999999</v>
+        <v>3.511999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.487692205638474</v>
+        <v>0.4953631840796016</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.003133333333333333</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.182000000000001</v>
+        <v>1.192000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>25.24092913211715</v>
+        <v>24.57715422885568</v>
       </c>
       <c r="E19" t="n">
-        <v>14.396</v>
+        <v>14.024</v>
       </c>
       <c r="F19" t="n">
-        <v>37.18933333333327</v>
+        <v>36.80000000000002</v>
       </c>
       <c r="G19" t="n">
-        <v>28.46302868988379</v>
+        <v>28.38503482587053</v>
       </c>
       <c r="H19" t="n">
-        <v>20.17006666666667</v>
+        <v>19.93600000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>36.19662380952384</v>
+        <v>35.64400000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>13.34406197335002</v>
+        <v>13.46537313432835</v>
       </c>
       <c r="K19" t="n">
-        <v>9.609518181818183</v>
+        <v>10.06799999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>16.90868173905986</v>
+        <v>17.48000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>6.889238785147392</v>
+        <v>6.704159203980087</v>
       </c>
       <c r="N19" t="n">
-        <v>3.766303922672456</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>10.06455590327395</v>
+        <v>10.25199999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>3.230503593684921</v>
+        <v>3.324835820895513</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.037687157287158</v>
+        <v>1.22</v>
       </c>
       <c r="R19" t="n">
-        <v>5.691530071708776</v>
+        <v>5.916</v>
       </c>
       <c r="S19" t="n">
-        <v>1.622717046027493</v>
+        <v>1.674268656716417</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1853999999999997</v>
+        <v>0.188</v>
       </c>
       <c r="U19" t="n">
-        <v>3.852413310157276</v>
+        <v>3.895999999999997</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6705346152833709</v>
+        <v>0.6801990049751234</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.83952453102453</v>
+        <v>1.864</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1199439350864723</v>
+        <v>0.1174925373134327</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.5174166666666667</v>
+        <v>0.5240000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.589012587854376</v>
+        <v>5.554825870646757</v>
       </c>
       <c r="E20" t="n">
-        <v>2.451248148148145</v>
+        <v>2.460000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>9.509131216931211</v>
+        <v>9.440000000000005</v>
       </c>
       <c r="G20" t="n">
-        <v>8.768000489974366</v>
+        <v>8.641194029850739</v>
       </c>
       <c r="H20" t="n">
-        <v>4.602002020202019</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>14.61656484626485</v>
+        <v>14.14000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>7.046529221027715</v>
+        <v>6.876616915422877</v>
       </c>
       <c r="K20" t="n">
-        <v>3.719169177880941</v>
+        <v>3.520000000000002</v>
       </c>
       <c r="L20" t="n">
-        <v>11.21714686424686</v>
+        <v>10.70000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>6.074714319111507</v>
+        <v>5.44199004975124</v>
       </c>
       <c r="N20" t="n">
-        <v>2.959793175154224</v>
+        <v>2.620000000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>9.461364501162194</v>
+        <v>8.439999999999996</v>
       </c>
       <c r="P20" t="n">
-        <v>4.556754488419157</v>
+        <v>4.203383084577101</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.150153177300857</v>
+        <v>2.04</v>
       </c>
       <c r="R20" t="n">
-        <v>6.773836141130828</v>
+        <v>6.379999999999996</v>
       </c>
       <c r="S20" t="n">
-        <v>3.194741576458733</v>
+        <v>3.17592039800994</v>
       </c>
       <c r="T20" t="n">
-        <v>1.538442993444465</v>
+        <v>1.44</v>
       </c>
       <c r="U20" t="n">
-        <v>5.062845823395945</v>
+        <v>4.999999999999998</v>
       </c>
       <c r="V20" t="n">
-        <v>1.784266172352608</v>
+        <v>1.800497512437811</v>
       </c>
       <c r="W20" t="n">
-        <v>0.7727786775316187</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="X20" t="n">
-        <v>3.064776747711243</v>
+        <v>3.139999999999999</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.4151938895158442</v>
+        <v>0.4290547263681584</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.055247918676475</v>
+        <v>1.160000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,76 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.051462686567164</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="G21" t="n">
-        <v>4.831328109452725</v>
+        <v>4.943303482587056</v>
       </c>
       <c r="H21" t="n">
-        <v>2.069949206349206</v>
+        <v>2.044</v>
       </c>
       <c r="I21" t="n">
-        <v>8.215387445887446</v>
+        <v>8.247999999999996</v>
       </c>
       <c r="J21" t="n">
-        <v>4.12332777829157</v>
+        <v>4.190726368159196</v>
       </c>
       <c r="K21" t="n">
-        <v>1.918419203019202</v>
+        <v>1.94</v>
       </c>
       <c r="L21" t="n">
-        <v>6.821840304140305</v>
+        <v>6.924000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>3.62512380578698</v>
+        <v>3.612039800995015</v>
       </c>
       <c r="N21" t="n">
-        <v>1.583112254194606</v>
+        <v>1.572</v>
       </c>
       <c r="O21" t="n">
-        <v>5.868025925925934</v>
+        <v>6.023999999999997</v>
       </c>
       <c r="P21" t="n">
-        <v>2.987810187159435</v>
+        <v>2.974686567164172</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.142793650793651</v>
+        <v>1.156000000000001</v>
       </c>
       <c r="R21" t="n">
-        <v>5.085258730158725</v>
+        <v>5.123999999999996</v>
       </c>
       <c r="S21" t="n">
-        <v>2.280744349680158</v>
+        <v>2.30608955223879</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9867893939393937</v>
+        <v>0.98</v>
       </c>
       <c r="U21" t="n">
-        <v>4.050379190656837</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="V21" t="n">
-        <v>1.422537983556886</v>
+        <v>1.387223880597014</v>
       </c>
       <c r="W21" t="n">
-        <v>0.4008923076923077</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X21" t="n">
-        <v>2.429533333333334</v>
+        <v>2.404000000000002</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3450857846640549</v>
+        <v>0.3332139303482571</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.9683883819724334</v>
+        <v>0.9799999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2259,58 +2259,58 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.09962623934013</v>
+        <v>78.95795024875613</v>
       </c>
       <c r="K22" t="n">
-        <v>60.9688220779221</v>
+        <v>60.76399999999996</v>
       </c>
       <c r="L22" t="n">
-        <v>89.33876839217432</v>
+        <v>89.57999999999997</v>
       </c>
       <c r="M22" t="n">
-        <v>10.40266154796006</v>
+        <v>10.37367164179103</v>
       </c>
       <c r="N22" t="n">
-        <v>3.803801058201062</v>
+        <v>3.896000000000002</v>
       </c>
       <c r="O22" t="n">
-        <v>18.08687328042327</v>
+        <v>18.14000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>1.597950783121432</v>
+        <v>1.612676616915422</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1725</v>
+        <v>0.1560000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>5.582204761904762</v>
+        <v>5.612000000000003</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3077872897417667</v>
+        <v>0.311582089552238</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.607131746031749</v>
+        <v>1.643999999999999</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04343513122219591</v>
+        <v>0.04716417910447752</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.3872222222222222</v>
+        <v>0.4039999999999999</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.004110762534379741</v>
+        <v>0.004079601990049754</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.441532891100055</v>
+        <v>1.356199004975121</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3643333333333337</v>
+        <v>0.3199999999999998</v>
       </c>
       <c r="F23" t="n">
-        <v>2.793777777777771</v>
+        <v>2.600000000000002</v>
       </c>
       <c r="G23" t="n">
-        <v>2.157589135187634</v>
+        <v>2.122825870646759</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7461323343323345</v>
+        <v>0.76</v>
       </c>
       <c r="I23" t="n">
-        <v>3.96064329004329</v>
+        <v>3.931999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>1.866787947213013</v>
+        <v>1.860000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6451291897644841</v>
+        <v>0.6080000000000004</v>
       </c>
       <c r="L23" t="n">
-        <v>3.453367239731944</v>
+        <v>3.444000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>1.66627043883289</v>
+        <v>1.639641791044775</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4910896298804966</v>
+        <v>0.5640000000000004</v>
       </c>
       <c r="O23" t="n">
-        <v>3.099457148515971</v>
+        <v>3.016</v>
       </c>
       <c r="P23" t="n">
-        <v>1.368565550554108</v>
+        <v>1.369452736318407</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3584683982683984</v>
+        <v>0.364</v>
       </c>
       <c r="R23" t="n">
-        <v>2.686512987012986</v>
+        <v>2.711999999999998</v>
       </c>
       <c r="S23" t="n">
-        <v>1.177143432548654</v>
+        <v>1.159164179104476</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3032654698242931</v>
+        <v>0.2479999999999999</v>
       </c>
       <c r="U23" t="n">
-        <v>2.365616394716392</v>
+        <v>2.284000000000002</v>
       </c>
       <c r="V23" t="n">
-        <v>0.7080373687119953</v>
+        <v>0.704736318407959</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0132</v>
+        <v>0.04800000000000001</v>
       </c>
       <c r="X23" t="n">
-        <v>1.746920277108512</v>
+        <v>1.683999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1913982640908013</v>
+        <v>0.1888756218905471</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.6008000000000009</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="24">
@@ -2416,67 +2416,67 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.03189552238805</v>
+        <v>6.297253731343274</v>
       </c>
       <c r="H24" t="n">
-        <v>3.017666666666665</v>
+        <v>3.139999999999998</v>
       </c>
       <c r="I24" t="n">
-        <v>9.783250000000013</v>
+        <v>10.11200000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>8.749083632104011</v>
+        <v>8.805870646766151</v>
       </c>
       <c r="K24" t="n">
-        <v>4.802434872534874</v>
+        <v>4.844000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>12.97666299256299</v>
+        <v>13.184</v>
       </c>
       <c r="M24" t="n">
-        <v>7.406450385781324</v>
+        <v>7.00459701492537</v>
       </c>
       <c r="N24" t="n">
-        <v>3.885463780663781</v>
+        <v>3.904000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>11.28902782692347</v>
+        <v>10.536</v>
       </c>
       <c r="P24" t="n">
-        <v>5.566423654982137</v>
+        <v>5.345452736318402</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.191259197012137</v>
+        <v>3.083999999999999</v>
       </c>
       <c r="R24" t="n">
-        <v>8.760855407136054</v>
+        <v>8.091999999999995</v>
       </c>
       <c r="S24" t="n">
-        <v>4.194814817534581</v>
+        <v>3.906109452736306</v>
       </c>
       <c r="T24" t="n">
-        <v>2.197050521700521</v>
+        <v>2.008</v>
       </c>
       <c r="U24" t="n">
-        <v>6.445672536619078</v>
+        <v>6.075999999999997</v>
       </c>
       <c r="V24" t="n">
-        <v>2.382703155694257</v>
+        <v>2.238029850746263</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9521790764790765</v>
+        <v>0.9879999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>3.922664974653713</v>
+        <v>3.875999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.5228564466102459</v>
+        <v>0.5237810945273628</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.178564710402609</v>
+        <v>1.204000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.303974350469859</v>
+        <v>5.200616915422883</v>
       </c>
       <c r="K25" t="n">
-        <v>2.575866666666664</v>
+        <v>2.512000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>8.868222222222226</v>
+        <v>8.687999999999995</v>
       </c>
       <c r="M25" t="n">
-        <v>8.727629813893486</v>
+        <v>8.695482587064658</v>
       </c>
       <c r="N25" t="n">
-        <v>4.577100488400486</v>
+        <v>4.604000000000002</v>
       </c>
       <c r="O25" t="n">
-        <v>13.34574920634922</v>
+        <v>13.31999999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>6.687871310116067</v>
+        <v>6.6286567164179</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.526514285714286</v>
+        <v>3.452000000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2733</v>
+        <v>10.22799999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>5.006322802653389</v>
+        <v>4.94099502487561</v>
       </c>
       <c r="T25" t="n">
-        <v>2.723679365079365</v>
+        <v>2.651999999999998</v>
       </c>
       <c r="U25" t="n">
-        <v>7.616641277704058</v>
+        <v>7.423999999999996</v>
       </c>
       <c r="V25" t="n">
-        <v>2.899546266852729</v>
+        <v>2.863203980099493</v>
       </c>
       <c r="W25" t="n">
-        <v>1.363904761904762</v>
+        <v>1.388</v>
       </c>
       <c r="X25" t="n">
-        <v>4.72253043631062</v>
+        <v>4.595999999999997</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.7050267551553396</v>
+        <v>0.68441791044776</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01321111111111111</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.582106690644124</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="26">
@@ -2573,76 +2573,76 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.0533930348258704</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="G26" t="n">
-        <v>4.78330112532574</v>
+        <v>4.764079601990034</v>
       </c>
       <c r="H26" t="n">
-        <v>2.191177777777777</v>
+        <v>2.379999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>8.001411255411258</v>
+        <v>7.744000000000004</v>
       </c>
       <c r="J26" t="n">
-        <v>4.122344125128813</v>
+        <v>4.218726368159201</v>
       </c>
       <c r="K26" t="n">
-        <v>1.935170525770526</v>
+        <v>1.999999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>6.801395859695859</v>
+        <v>6.836000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>3.634915698176882</v>
+        <v>3.671104477611936</v>
       </c>
       <c r="N26" t="n">
-        <v>1.630454582236934</v>
+        <v>1.632</v>
       </c>
       <c r="O26" t="n">
-        <v>5.835413227513227</v>
+        <v>5.868000000000003</v>
       </c>
       <c r="P26" t="n">
-        <v>2.975529456613027</v>
+        <v>2.971323383084565</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.3044</v>
+        <v>1.343999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>4.938715873015874</v>
+        <v>4.851999999999997</v>
       </c>
       <c r="S26" t="n">
-        <v>2.301298092868977</v>
+        <v>2.326985074626855</v>
       </c>
       <c r="T26" t="n">
-        <v>1.069428282828283</v>
+        <v>1.02</v>
       </c>
       <c r="U26" t="n">
-        <v>4.204801412879061</v>
+        <v>4.187999999999997</v>
       </c>
       <c r="V26" t="n">
-        <v>1.435549444769342</v>
+        <v>1.428895522388059</v>
       </c>
       <c r="W26" t="n">
-        <v>0.5038923076923078</v>
+        <v>0.5240000000000002</v>
       </c>
       <c r="X26" t="n">
-        <v>2.572807936507936</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3499622416647658</v>
+        <v>0.3476616915422878</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.9132001212135843</v>
+        <v>0.8479999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -2656,76 +2656,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>67.83166169154217</v>
+        <v>66.82376119402967</v>
       </c>
       <c r="E27" t="n">
-        <v>50.98266666666661</v>
+        <v>50.22</v>
       </c>
       <c r="F27" t="n">
-        <v>83.41466666666659</v>
+        <v>82.56400000000004</v>
       </c>
       <c r="G27" t="n">
-        <v>15.97256119402986</v>
+        <v>15.89940298507461</v>
       </c>
       <c r="H27" t="n">
-        <v>8.515999999999995</v>
+        <v>8.771999999999995</v>
       </c>
       <c r="I27" t="n">
-        <v>22.34714285714284</v>
+        <v>22.236</v>
       </c>
       <c r="J27" t="n">
-        <v>4.396156595330216</v>
+        <v>4.25994029850745</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9881555555555551</v>
+        <v>1.152</v>
       </c>
       <c r="L27" t="n">
-        <v>8.698947563547563</v>
+        <v>8.415999999999993</v>
       </c>
       <c r="M27" t="n">
-        <v>1.349268279942252</v>
+        <v>1.269492537313431</v>
       </c>
       <c r="N27" t="n">
-        <v>0.06940685473076365</v>
+        <v>0.092</v>
       </c>
       <c r="O27" t="n">
-        <v>4.103480600880594</v>
+        <v>3.644000000000002</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3593600515938815</v>
+        <v>0.4167363184079594</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="R27" t="n">
-        <v>1.628016666666669</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1304037643671971</v>
+        <v>0.1440398009950246</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.7826126984126972</v>
+        <v>0.7120000000000007</v>
       </c>
       <c r="V27" t="n">
-        <v>0.02999597329149562</v>
+        <v>0.0417711442786069</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2147222222222222</v>
+        <v>0.2559999999999998</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.005898407237398031</v>
+        <v>0.005154228855721391</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.1045949883449883</v>
+        <v>0.05600000000000002</v>
       </c>
     </row>
     <row r="28">
@@ -2757,58 +2757,58 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.59718410654192</v>
+        <v>27.92368159203961</v>
       </c>
       <c r="K28" t="n">
-        <v>16.53286645200346</v>
+        <v>17.09200000000001</v>
       </c>
       <c r="L28" t="n">
-        <v>39.71470604210603</v>
+        <v>38.90800000000002</v>
       </c>
       <c r="M28" t="n">
-        <v>17.64885304259457</v>
+        <v>16.99267661691541</v>
       </c>
       <c r="N28" t="n">
-        <v>12.13600563989389</v>
+        <v>12.12399999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>22.70990661175197</v>
+        <v>21.80399999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>9.421342179620517</v>
+        <v>10.16589054726367</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.421646100112318</v>
+        <v>7.203999999999993</v>
       </c>
       <c r="R28" t="n">
-        <v>12.62529559824151</v>
+        <v>13.164</v>
       </c>
       <c r="S28" t="n">
-        <v>5.652760959477503</v>
+        <v>5.90314427860695</v>
       </c>
       <c r="T28" t="n">
-        <v>3.41254798363669</v>
+        <v>3.472000000000003</v>
       </c>
       <c r="U28" t="n">
-        <v>7.998628398791197</v>
+        <v>8.488000000000003</v>
       </c>
       <c r="V28" t="n">
-        <v>2.743656263231256</v>
+        <v>2.642805970149237</v>
       </c>
       <c r="W28" t="n">
-        <v>1.107437229437229</v>
+        <v>1.156000000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>4.267618717234472</v>
+        <v>4.227999999999997</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.5168665211167165</v>
+        <v>0.5285572139303475</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.288112492828212</v>
+        <v>1.204000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.193863365711118</v>
+        <v>2.081034825870635</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7733333333333319</v>
+        <v>0.7040000000000002</v>
       </c>
       <c r="F29" t="n">
-        <v>4.066111111111113</v>
+        <v>3.871999999999998</v>
       </c>
       <c r="G29" t="n">
-        <v>1.966867172794037</v>
+        <v>1.988497512437809</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6436157287157291</v>
+        <v>0.6320000000000006</v>
       </c>
       <c r="I29" t="n">
-        <v>3.565243290043288</v>
+        <v>3.616</v>
       </c>
       <c r="J29" t="n">
-        <v>1.813422857797177</v>
+        <v>1.781930348258706</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4617099678099679</v>
+        <v>0.44</v>
       </c>
       <c r="L29" t="n">
-        <v>3.371653483118186</v>
+        <v>3.272000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>1.559063041657072</v>
+        <v>1.555582089552238</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5285632655041321</v>
+        <v>0.5520000000000002</v>
       </c>
       <c r="O29" t="n">
-        <v>3.006367724867727</v>
+        <v>3.072000000000001</v>
       </c>
       <c r="P29" t="n">
-        <v>1.302683534707415</v>
+        <v>1.323701492537313</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3754805194805195</v>
+        <v>0.3599999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>2.635035209235208</v>
+        <v>2.623999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>1.100154750059226</v>
+        <v>1.099980099502488</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2092909090909087</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="U29" t="n">
-        <v>2.248118944018941</v>
+        <v>2.232000000000002</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6612600331674956</v>
+        <v>0.6614527363184075</v>
       </c>
       <c r="W29" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.632618401206636</v>
+        <v>1.632</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1859913527600093</v>
+        <v>0.1869452736318406</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.6095000000000009</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="30">
@@ -2914,67 +2914,67 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>17.10845193082207</v>
+        <v>17.2076815920398</v>
       </c>
       <c r="H30" t="n">
-        <v>9.556066666666664</v>
+        <v>9.868000000000002</v>
       </c>
       <c r="I30" t="n">
-        <v>25.57102063492064</v>
+        <v>25.95199999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>12.6337432107058</v>
+        <v>12.38360199004974</v>
       </c>
       <c r="K30" t="n">
-        <v>7.215170899470903</v>
+        <v>7.307999999999996</v>
       </c>
       <c r="L30" t="n">
-        <v>17.84673453213453</v>
+        <v>17.476</v>
       </c>
       <c r="M30" t="n">
-        <v>9.19637193259581</v>
+        <v>9.0124975124378</v>
       </c>
       <c r="N30" t="n">
-        <v>6.238829107527982</v>
+        <v>5.856000000000003</v>
       </c>
       <c r="O30" t="n">
-        <v>12.22727341733656</v>
+        <v>12.684</v>
       </c>
       <c r="P30" t="n">
-        <v>5.950563282894395</v>
+        <v>6.277850746268644</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.848648594061596</v>
+        <v>3.948000000000001</v>
       </c>
       <c r="R30" t="n">
-        <v>8.299378892813712</v>
+        <v>8.628000000000007</v>
       </c>
       <c r="S30" t="n">
-        <v>3.822315541059155</v>
+        <v>4.187422885572124</v>
       </c>
       <c r="T30" t="n">
-        <v>2.171953075682487</v>
+        <v>2.54</v>
       </c>
       <c r="U30" t="n">
-        <v>5.719741688805076</v>
+        <v>6.02</v>
       </c>
       <c r="V30" t="n">
-        <v>2.088031899343657</v>
+        <v>2.2051343283582</v>
       </c>
       <c r="W30" t="n">
-        <v>1.089789833042774</v>
+        <v>1.064</v>
       </c>
       <c r="X30" t="n">
-        <v>3.427049369564544</v>
+        <v>3.536000000000003</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.4618929719769996</v>
+        <v>0.4724577114427847</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.108585562541304</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.88853430680674</v>
+        <v>55.34127363184063</v>
       </c>
       <c r="K31" t="n">
-        <v>39.70314068524071</v>
+        <v>39.15199999999997</v>
       </c>
       <c r="L31" t="n">
-        <v>71.37757491027486</v>
+        <v>72.12400000000005</v>
       </c>
       <c r="M31" t="n">
-        <v>18.72986102672827</v>
+        <v>19.00903482587065</v>
       </c>
       <c r="N31" t="n">
-        <v>14.39390350499173</v>
+        <v>14.18399999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>23.0628846093535</v>
+        <v>23.888</v>
       </c>
       <c r="P31" t="n">
-        <v>6.722698782846022</v>
+        <v>6.799402985074621</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.830552380952381</v>
+        <v>2.823999999999999</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04262141516625</v>
+        <v>11.028</v>
       </c>
       <c r="S31" t="n">
-        <v>2.414474295190699</v>
+        <v>2.43864676616914</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5556666666666671</v>
+        <v>0.5800000000000002</v>
       </c>
       <c r="U31" t="n">
-        <v>5.046528571428573</v>
+        <v>5.068</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7040464344941941</v>
+        <v>0.7215721393034823</v>
       </c>
       <c r="W31" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
       <c r="X31" t="n">
-        <v>2.281333333333334</v>
+        <v>2.296000000000002</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.08696218905472622</v>
+        <v>0.09054726368159191</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.4453333333333328</v>
+        <v>0.4359999999999997</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>47.27578683868175</v>
+        <v>45.38726368159188</v>
       </c>
       <c r="K32" t="n">
-        <v>30.03746216746217</v>
+        <v>29.764</v>
       </c>
       <c r="L32" t="n">
-        <v>62.57056277056273</v>
+        <v>61.50800000000006</v>
       </c>
       <c r="M32" t="n">
-        <v>31.63480590237096</v>
+        <v>31.70023880597008</v>
       </c>
       <c r="N32" t="n">
-        <v>25.40615535205535</v>
+        <v>25.62799999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>36.73928240138488</v>
+        <v>36.82400000000003</v>
       </c>
       <c r="P32" t="n">
-        <v>7.221951686014362</v>
+        <v>7.775621890547262</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.544666666666666</v>
+        <v>2.923999999999999</v>
       </c>
       <c r="R32" t="n">
-        <v>13.02684999999999</v>
+        <v>13.468</v>
       </c>
       <c r="S32" t="n">
-        <v>1.810855058043116</v>
+        <v>2.0430447761194</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1423333333333332</v>
+        <v>0.2359999999999999</v>
       </c>
       <c r="U32" t="n">
-        <v>4.740892063492067</v>
+        <v>5.007999999999999</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3562091763405183</v>
+        <v>0.4551243781094524</v>
       </c>
       <c r="W32" t="n">
-        <v>0.044</v>
+        <v>0.016</v>
       </c>
       <c r="X32" t="n">
-        <v>1.684499999999999</v>
+        <v>1.863999999999999</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.03094830942965255</v>
+        <v>0.0460497512437809</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.001333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.2499999999999996</v>
+        <v>0.2439999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>35.68279585406293</v>
+        <v>35.33311442786053</v>
       </c>
       <c r="H33" t="n">
-        <v>23.34886666666667</v>
+        <v>22.848</v>
       </c>
       <c r="I33" t="n">
-        <v>50.49496666666668</v>
+        <v>49.94399999999997</v>
       </c>
       <c r="J33" t="n">
-        <v>31.96230519856903</v>
+        <v>31.91854726368152</v>
       </c>
       <c r="K33" t="n">
-        <v>26.36171402856403</v>
+        <v>26.15999999999998</v>
       </c>
       <c r="L33" t="n">
-        <v>37.17221031582795</v>
+        <v>36.82799999999998</v>
       </c>
       <c r="M33" t="n">
-        <v>11.77096432867557</v>
+        <v>11.24479601990049</v>
       </c>
       <c r="N33" t="n">
-        <v>6.939917595108577</v>
+        <v>6.604000000000005</v>
       </c>
       <c r="O33" t="n">
-        <v>16.08039251520771</v>
+        <v>16.15200000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>4.277958311616509</v>
+        <v>4.18495522388059</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.127521212121213</v>
+        <v>1.284000000000001</v>
       </c>
       <c r="R33" t="n">
-        <v>7.944608771929817</v>
+        <v>7.752000000000005</v>
       </c>
       <c r="S33" t="n">
-        <v>1.511928247650636</v>
+        <v>1.523383084577114</v>
       </c>
       <c r="T33" t="n">
-        <v>0.07050000000000003</v>
+        <v>0.112</v>
       </c>
       <c r="U33" t="n">
-        <v>3.774870899470899</v>
+        <v>3.832</v>
       </c>
       <c r="V33" t="n">
-        <v>0.460339966832503</v>
+        <v>0.4768955223880593</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="X33" t="n">
-        <v>1.493022222222222</v>
+        <v>1.563999999999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.06420961857379759</v>
+        <v>0.06799999999999981</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.3588333333333328</v>
+        <v>0.4039999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>27.35768490878929</v>
+        <v>27.18913432835814</v>
       </c>
       <c r="E34" t="n">
-        <v>16.63155555555555</v>
+        <v>16.708</v>
       </c>
       <c r="F34" t="n">
-        <v>39.77333333333323</v>
+        <v>40.62400000000003</v>
       </c>
       <c r="G34" t="n">
-        <v>17.82318152096659</v>
+        <v>17.26278606965172</v>
       </c>
       <c r="H34" t="n">
-        <v>12.04617142857143</v>
+        <v>11.896</v>
       </c>
       <c r="I34" t="n">
-        <v>22.92646666666666</v>
+        <v>22.09999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>10.35358559884927</v>
+        <v>10.49140298507461</v>
       </c>
       <c r="K34" t="n">
-        <v>7.457968253968256</v>
+        <v>7.484000000000004</v>
       </c>
       <c r="L34" t="n">
-        <v>13.22669785399785</v>
+        <v>13.96400000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>6.294042730202722</v>
+        <v>6.502447761194013</v>
       </c>
       <c r="N34" t="n">
-        <v>4.173543441089901</v>
+        <v>3.94</v>
       </c>
       <c r="O34" t="n">
-        <v>8.575817474501786</v>
+        <v>9.119999999999997</v>
       </c>
       <c r="P34" t="n">
-        <v>4.312767228501809</v>
+        <v>3.99261691542287</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.535496409232323</v>
+        <v>2.016</v>
       </c>
       <c r="R34" t="n">
-        <v>6.499781133066993</v>
+        <v>6.496000000000002</v>
       </c>
       <c r="S34" t="n">
-        <v>2.658409647154984</v>
+        <v>2.384398009950238</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9472516983016982</v>
+        <v>0.8879999999999997</v>
       </c>
       <c r="U34" t="n">
-        <v>4.470167026984549</v>
+        <v>4.135999999999998</v>
       </c>
       <c r="V34" t="n">
-        <v>1.220889507849504</v>
+        <v>1.142109452736318</v>
       </c>
       <c r="W34" t="n">
-        <v>0.141109645909646</v>
+        <v>0.1480000000000001</v>
       </c>
       <c r="X34" t="n">
-        <v>2.765495506730002</v>
+        <v>2.471999999999999</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2417363707878622</v>
+        <v>0.2254129353233815</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.8171384923899626</v>
+        <v>0.7440000000000002</v>
       </c>
     </row>
     <row r="35">
@@ -3329,67 +3329,67 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.623602147990207</v>
+        <v>9.643820895522385</v>
       </c>
       <c r="H35" t="n">
-        <v>4.98653492063492</v>
+        <v>4.900000000000002</v>
       </c>
       <c r="I35" t="n">
-        <v>15.09401167166167</v>
+        <v>15.376</v>
       </c>
       <c r="J35" t="n">
-        <v>7.733013632783273</v>
+        <v>7.891781094527354</v>
       </c>
       <c r="K35" t="n">
-        <v>3.99585276466453</v>
+        <v>3.940000000000002</v>
       </c>
       <c r="L35" t="n">
-        <v>11.77340602730602</v>
+        <v>12.008</v>
       </c>
       <c r="M35" t="n">
-        <v>6.462159330551484</v>
+        <v>6.205273631840785</v>
       </c>
       <c r="N35" t="n">
-        <v>3.413579770171404</v>
+        <v>3.300000000000002</v>
       </c>
       <c r="O35" t="n">
-        <v>9.775177950897323</v>
+        <v>9.287999999999993</v>
       </c>
       <c r="P35" t="n">
-        <v>5.187646838754016</v>
+        <v>4.842427860696508</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.800872294372294</v>
+        <v>2.619999999999998</v>
       </c>
       <c r="R35" t="n">
-        <v>7.961140476178445</v>
+        <v>7.495999999999996</v>
       </c>
       <c r="S35" t="n">
-        <v>3.671493282827679</v>
+        <v>3.516975124378098</v>
       </c>
       <c r="T35" t="n">
-        <v>1.990466867446279</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="U35" t="n">
-        <v>5.775600402422614</v>
+        <v>5.651999999999999</v>
       </c>
       <c r="V35" t="n">
-        <v>2.068159446791602</v>
+        <v>2.024616915422875</v>
       </c>
       <c r="W35" t="n">
-        <v>0.8996949834479245</v>
+        <v>0.8119999999999998</v>
       </c>
       <c r="X35" t="n">
-        <v>3.437192226707401</v>
+        <v>3.508</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4615327532294675</v>
+        <v>0.4851343283582081</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.133619406906433</v>
+        <v>1.192000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>16.18942059651238</v>
+        <v>16.09695522388061</v>
       </c>
       <c r="K36" t="n">
-        <v>9.010098830409357</v>
+        <v>9.016000000000005</v>
       </c>
       <c r="L36" t="n">
-        <v>25.26465227909345</v>
+        <v>24.7</v>
       </c>
       <c r="M36" t="n">
-        <v>21.51792592592576</v>
+        <v>21.70119402985061</v>
       </c>
       <c r="N36" t="n">
-        <v>14.18200000000002</v>
+        <v>14.48000000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>29.26577777777776</v>
+        <v>29.576</v>
       </c>
       <c r="P36" t="n">
-        <v>12.92603980590071</v>
+        <v>12.72979104477611</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.194481656905186</v>
+        <v>8.804000000000006</v>
       </c>
       <c r="R36" t="n">
-        <v>16.35644234684304</v>
+        <v>16.43999999999999</v>
       </c>
       <c r="S36" t="n">
-        <v>6.96784447980562</v>
+        <v>7.20356218905471</v>
       </c>
       <c r="T36" t="n">
-        <v>4.724976284826284</v>
+        <v>4.864</v>
       </c>
       <c r="U36" t="n">
-        <v>9.57199958636857</v>
+        <v>9.588000000000008</v>
       </c>
       <c r="V36" t="n">
-        <v>3.377686828370509</v>
+        <v>3.245412935323368</v>
       </c>
       <c r="W36" t="n">
-        <v>1.557642857142857</v>
+        <v>1.408</v>
       </c>
       <c r="X36" t="n">
-        <v>5.20440121012334</v>
+        <v>5.292000000000002</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.6571642092549448</v>
+        <v>0.6312437810945259</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.03458845598845599</v>
+        <v>0.02</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.555929621797939</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3.346424986180202</v>
+        <v>3.196159203980088</v>
       </c>
       <c r="E37" t="n">
-        <v>1.281111111111113</v>
+        <v>1.247999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>5.891688888888881</v>
+        <v>5.764000000000003</v>
       </c>
       <c r="G37" t="n">
-        <v>4.500455686933286</v>
+        <v>4.450268656716407</v>
       </c>
       <c r="H37" t="n">
-        <v>2.059742857142858</v>
+        <v>2.032000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>8.24453982683983</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>3.939306588602103</v>
+        <v>3.880099502487554</v>
       </c>
       <c r="K37" t="n">
-        <v>1.737534376734376</v>
+        <v>1.679999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>6.756166230066228</v>
+        <v>6.704000000000002</v>
       </c>
       <c r="M37" t="n">
-        <v>3.316075418813721</v>
+        <v>3.248577114427853</v>
       </c>
       <c r="N37" t="n">
-        <v>1.297802247425776</v>
+        <v>1.264</v>
       </c>
       <c r="O37" t="n">
-        <v>5.516659259259258</v>
+        <v>5.512</v>
       </c>
       <c r="P37" t="n">
-        <v>2.645161394087755</v>
+        <v>2.627343283582082</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.090869841269841</v>
+        <v>1.052</v>
       </c>
       <c r="R37" t="n">
-        <v>4.729715873015873</v>
+        <v>4.547999999999996</v>
       </c>
       <c r="S37" t="n">
-        <v>2.13529161336176</v>
+        <v>2.097771144278604</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7557249999999993</v>
+        <v>0.7720000000000004</v>
       </c>
       <c r="U37" t="n">
-        <v>4.031610198600085</v>
+        <v>3.864</v>
       </c>
       <c r="V37" t="n">
-        <v>1.298886942256778</v>
+        <v>1.258388059701491</v>
       </c>
       <c r="W37" t="n">
-        <v>0.2974923076923077</v>
+        <v>0.26</v>
       </c>
       <c r="X37" t="n">
-        <v>2.420442857142857</v>
+        <v>2.312000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.332390867765034</v>
+        <v>0.3097313432835818</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.887672726635338</v>
+        <v>0.8279999999999998</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>34.81675621890543</v>
+        <v>34.18254726368148</v>
       </c>
       <c r="E38" t="n">
-        <v>21.62111111111115</v>
+        <v>21.19199999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>50.05724444444455</v>
+        <v>49.42399999999997</v>
       </c>
       <c r="G38" t="n">
-        <v>32.01615755209404</v>
+        <v>32.09325373134321</v>
       </c>
       <c r="H38" t="n">
-        <v>25.42817142857143</v>
+        <v>25.71200000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>37.63420112665113</v>
+        <v>37.95600000000002</v>
       </c>
       <c r="J38" t="n">
-        <v>11.46551230554961</v>
+        <v>11.61793034825869</v>
       </c>
       <c r="K38" t="n">
-        <v>6.459460317460316</v>
+        <v>6.583999999999998</v>
       </c>
       <c r="L38" t="n">
-        <v>16.50384541242353</v>
+        <v>16.66800000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>4.343130544583614</v>
+        <v>4.346288557213917</v>
       </c>
       <c r="N38" t="n">
-        <v>1.035020647870647</v>
+        <v>1.059999999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>8.672315165929998</v>
+        <v>7.948000000000003</v>
       </c>
       <c r="P38" t="n">
-        <v>1.620616818026269</v>
+        <v>1.735522388059702</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1042222222222222</v>
+        <v>0.108</v>
       </c>
       <c r="R38" t="n">
-        <v>4.183671789321789</v>
+        <v>4.12</v>
       </c>
       <c r="S38" t="n">
-        <v>0.6190968648819384</v>
+        <v>0.6734925373134314</v>
       </c>
       <c r="T38" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="U38" t="n">
-        <v>2.109838047138048</v>
+        <v>1.991999999999999</v>
       </c>
       <c r="V38" t="n">
-        <v>0.2000305140961849</v>
+        <v>0.2151840796019896</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.945333333333333</v>
+        <v>0.9159999999999997</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.02997315801942655</v>
+        <v>0.02788059701492522</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.2761666666666662</v>
+        <v>0.2199999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>16.37649751243782</v>
+        <v>17.42029850746267</v>
       </c>
       <c r="E39" t="n">
-        <v>9.415333333333338</v>
+        <v>9.995999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>25.96933333333332</v>
+        <v>26.704</v>
       </c>
       <c r="G39" t="n">
-        <v>13.27004217010186</v>
+        <v>12.97452736318406</v>
       </c>
       <c r="H39" t="n">
-        <v>7.800819047619047</v>
+        <v>7.775999999999995</v>
       </c>
       <c r="I39" t="n">
-        <v>19.12880000000001</v>
+        <v>18.65599999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>9.578020882158187</v>
+        <v>9.208935323383072</v>
       </c>
       <c r="K39" t="n">
-        <v>5.958565079365069</v>
+        <v>5.872000000000005</v>
       </c>
       <c r="L39" t="n">
-        <v>13.0662157916158</v>
+        <v>12.66399999999999</v>
       </c>
       <c r="M39" t="n">
-        <v>6.264292841922369</v>
+        <v>6.532179104477601</v>
       </c>
       <c r="N39" t="n">
-        <v>4.148046615693075</v>
+        <v>4.132000000000001</v>
       </c>
       <c r="O39" t="n">
-        <v>8.564922236406547</v>
+        <v>9.407999999999994</v>
       </c>
       <c r="P39" t="n">
-        <v>4.31170817942485</v>
+        <v>4.642726368159193</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.553749889085803</v>
+        <v>2.912</v>
       </c>
       <c r="R39" t="n">
-        <v>6.495490656876517</v>
+        <v>6.612</v>
       </c>
       <c r="S39" t="n">
-        <v>2.867572835762952</v>
+        <v>3.018905472636812</v>
       </c>
       <c r="T39" t="n">
-        <v>1.5518263986014</v>
+        <v>1.544</v>
       </c>
       <c r="U39" t="n">
-        <v>4.528831312698834</v>
+        <v>4.800000000000003</v>
       </c>
       <c r="V39" t="n">
-        <v>1.706220610206384</v>
+        <v>1.659044776119401</v>
       </c>
       <c r="W39" t="n">
-        <v>0.5678073932603346</v>
+        <v>0.4639999999999999</v>
       </c>
       <c r="X39" t="n">
-        <v>3.009838652473148</v>
+        <v>2.996</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.3946150688860239</v>
+        <v>0.352457711442785</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.03264477119408</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="40">
@@ -3744,67 +3744,67 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0544278606965172</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="J40" t="n">
-        <v>4.887537975575399</v>
+        <v>4.77373134328358</v>
       </c>
       <c r="K40" t="n">
-        <v>2.328791173641173</v>
+        <v>2.276000000000002</v>
       </c>
       <c r="L40" t="n">
-        <v>7.897931531431535</v>
+        <v>7.78</v>
       </c>
       <c r="M40" t="n">
-        <v>4.236933633420193</v>
+        <v>4.2734527363184</v>
       </c>
       <c r="N40" t="n">
-        <v>1.976952140452139</v>
+        <v>2.072000000000001</v>
       </c>
       <c r="O40" t="n">
-        <v>7.315674603174602</v>
+        <v>7.424000000000003</v>
       </c>
       <c r="P40" t="n">
-        <v>3.484430829259175</v>
+        <v>3.515383084577104</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.549865079365079</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>5.734401587301588</v>
+        <v>5.772000000000004</v>
       </c>
       <c r="S40" t="n">
-        <v>2.818734288873084</v>
+        <v>2.789154228855713</v>
       </c>
       <c r="T40" t="n">
-        <v>1.217153060828061</v>
+        <v>1.324</v>
       </c>
       <c r="U40" t="n">
-        <v>4.88630928330928</v>
+        <v>4.948</v>
       </c>
       <c r="V40" t="n">
-        <v>1.660186606649291</v>
+        <v>1.668059701492536</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4958666666666667</v>
+        <v>0.5800000000000004</v>
       </c>
       <c r="X40" t="n">
-        <v>3.128001587301587</v>
+        <v>3.171999999999999</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4225056832885178</v>
+        <v>0.4430447761194011</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.076144733044734</v>
+        <v>1.148000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3845,49 +3845,49 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>27.30359867330008</v>
+        <v>27.8909452736317</v>
       </c>
       <c r="N41" t="n">
-        <v>17.09588888888889</v>
+        <v>17.13600000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>39.76033333333336</v>
+        <v>40.81999999999998</v>
       </c>
       <c r="P41" t="n">
-        <v>16.54928416383689</v>
+        <v>16.6416119402985</v>
       </c>
       <c r="Q41" t="n">
-        <v>11.47573333333334</v>
+        <v>11.868</v>
       </c>
       <c r="R41" t="n">
-        <v>21.39227972076943</v>
+        <v>21.296</v>
       </c>
       <c r="S41" t="n">
-        <v>9.092806462553465</v>
+        <v>9.370905472636807</v>
       </c>
       <c r="T41" t="n">
-        <v>6.407266666666666</v>
+        <v>6.504000000000001</v>
       </c>
       <c r="U41" t="n">
-        <v>11.89365471064883</v>
+        <v>12.436</v>
       </c>
       <c r="V41" t="n">
-        <v>4.183088982324386</v>
+        <v>4.210149253731334</v>
       </c>
       <c r="W41" t="n">
-        <v>2.384370862470863</v>
+        <v>2.392000000000001</v>
       </c>
       <c r="X41" t="n">
-        <v>6.1708787989788</v>
+        <v>6.195999999999998</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.8172147999750057</v>
+        <v>0.7817711442786073</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.1686571428571429</v>
+        <v>0.188</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.747980234308176</v>
+        <v>1.751999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>40.48873059306635</v>
+        <v>41.11122388059697</v>
       </c>
       <c r="H42" t="n">
-        <v>25.8975380952381</v>
+        <v>26.30800000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>55.82217828282825</v>
+        <v>56.52399999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>19.60339272777769</v>
+        <v>19.88304477611937</v>
       </c>
       <c r="K42" t="n">
-        <v>15.51314054094054</v>
+        <v>15.496</v>
       </c>
       <c r="L42" t="n">
-        <v>23.39836566373973</v>
+        <v>23.83999999999999</v>
       </c>
       <c r="M42" t="n">
-        <v>9.270744760762666</v>
+        <v>9.538726368159189</v>
       </c>
       <c r="N42" t="n">
-        <v>6.578035140044177</v>
+        <v>6.372000000000001</v>
       </c>
       <c r="O42" t="n">
-        <v>12.24334008400323</v>
+        <v>12.69600000000001</v>
       </c>
       <c r="P42" t="n">
-        <v>4.968738985505575</v>
+        <v>4.661990049751227</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.18319164578112</v>
+        <v>2.056000000000001</v>
       </c>
       <c r="R42" t="n">
-        <v>7.899837409297231</v>
+        <v>7.568000000000004</v>
       </c>
       <c r="S42" t="n">
-        <v>2.245018431651256</v>
+        <v>2.227980099502473</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4014999999999994</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="U42" t="n">
-        <v>4.814526015856692</v>
+        <v>4.656000000000002</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9113743373081671</v>
+        <v>0.9067064676616908</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>2.128418181818182</v>
+        <v>2.092000000000001</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1461429163705283</v>
+        <v>0.1468855721393035</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.5937500000000009</v>
+        <v>0.5960000000000005</v>
       </c>
     </row>
     <row r="43">
@@ -3993,67 +3993,67 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>17.10845193082207</v>
+        <v>17.410407960199</v>
       </c>
       <c r="H43" t="n">
-        <v>9.556066666666664</v>
+        <v>10.024</v>
       </c>
       <c r="I43" t="n">
-        <v>25.87384285714287</v>
+        <v>26.23599999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>12.7140823088658</v>
+        <v>12.48220895522387</v>
       </c>
       <c r="K43" t="n">
-        <v>7.246207936507938</v>
+        <v>7.399999999999995</v>
       </c>
       <c r="L43" t="n">
-        <v>18.09429008769008</v>
+        <v>17.58799999999999</v>
       </c>
       <c r="M43" t="n">
-        <v>9.19637193259581</v>
+        <v>9.037532338308447</v>
       </c>
       <c r="N43" t="n">
-        <v>6.289009294008167</v>
+        <v>5.896000000000003</v>
       </c>
       <c r="O43" t="n">
-        <v>12.20119934326248</v>
+        <v>12.692</v>
       </c>
       <c r="P43" t="n">
-        <v>5.944981193342155</v>
+        <v>6.277631840796008</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.819315260728263</v>
+        <v>3.94</v>
       </c>
       <c r="R43" t="n">
-        <v>8.299378892813712</v>
+        <v>8.632000000000007</v>
       </c>
       <c r="S43" t="n">
-        <v>3.822315541059155</v>
+        <v>4.17603980099501</v>
       </c>
       <c r="T43" t="n">
-        <v>2.169953075682487</v>
+        <v>2.524</v>
       </c>
       <c r="U43" t="n">
-        <v>5.719741688805076</v>
+        <v>6.012</v>
       </c>
       <c r="V43" t="n">
-        <v>2.088031899343657</v>
+        <v>2.196358208955215</v>
       </c>
       <c r="W43" t="n">
-        <v>1.090789833042774</v>
+        <v>1.052</v>
       </c>
       <c r="X43" t="n">
-        <v>3.467496339261513</v>
+        <v>3.536000000000003</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4628898625242633</v>
+        <v>0.4693731343283569</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.114449999553567</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="44">
@@ -4094,49 +4094,49 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>40.59862531785497</v>
+        <v>40.97719402985065</v>
       </c>
       <c r="N44" t="n">
-        <v>24.6526666666667</v>
+        <v>25.23599999999999</v>
       </c>
       <c r="O44" t="n">
-        <v>56.47733333333337</v>
+        <v>56.724</v>
       </c>
       <c r="P44" t="n">
-        <v>18.94281657573124</v>
+        <v>19.2324776119403</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.8337301920302</v>
+        <v>14.896</v>
       </c>
       <c r="R44" t="n">
-        <v>23.07399494394495</v>
+        <v>23.408</v>
       </c>
       <c r="S44" t="n">
-        <v>8.765534549392001</v>
+        <v>8.593890547263683</v>
       </c>
       <c r="T44" t="n">
-        <v>5.667446897546897</v>
+        <v>5.476000000000004</v>
       </c>
       <c r="U44" t="n">
-        <v>11.83806952546364</v>
+        <v>11.716</v>
       </c>
       <c r="V44" t="n">
-        <v>3.218339872068233</v>
+        <v>3.154945273631833</v>
       </c>
       <c r="W44" t="n">
-        <v>1.024</v>
+        <v>1.06</v>
       </c>
       <c r="X44" t="n">
-        <v>5.565310500610503</v>
+        <v>5.604</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.5173981757877268</v>
+        <v>0.5110845771144268</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.217214285714288</v>
+        <v>1.204000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>39.8949784411276</v>
+        <v>42.53106467661684</v>
       </c>
       <c r="E45" t="n">
-        <v>26.81799999999998</v>
+        <v>28.35199999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>57.35333333333323</v>
+        <v>59.79199999999998</v>
       </c>
       <c r="G45" t="n">
-        <v>19.69375820895521</v>
+        <v>19.78589054726366</v>
       </c>
       <c r="H45" t="n">
-        <v>15.47053333333332</v>
+        <v>15.45599999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>23.786947008547</v>
+        <v>24.08800000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>9.754691387366998</v>
+        <v>9.561791044776115</v>
       </c>
       <c r="K45" t="n">
-        <v>6.308620634920639</v>
+        <v>5.831999999999997</v>
       </c>
       <c r="L45" t="n">
-        <v>12.7864852998853</v>
+        <v>12.992</v>
       </c>
       <c r="M45" t="n">
-        <v>6.160876501356749</v>
+        <v>4.656597014925365</v>
       </c>
       <c r="N45" t="n">
-        <v>3.166122332242316</v>
+        <v>2.060000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>8.536631615915928</v>
+        <v>7.660000000000005</v>
       </c>
       <c r="P45" t="n">
-        <v>2.846705393966822</v>
+        <v>2.324338308457707</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7078030303030303</v>
+        <v>0.436</v>
       </c>
       <c r="R45" t="n">
-        <v>5.20212799633317</v>
+        <v>4.479999999999997</v>
       </c>
       <c r="S45" t="n">
-        <v>1.316619241399839</v>
+        <v>1.154407960199004</v>
       </c>
       <c r="T45" t="n">
-        <v>0.02073333333333333</v>
+        <v>0.012</v>
       </c>
       <c r="U45" t="n">
-        <v>3.04964446215343</v>
+        <v>2.679999999999998</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4950469872857926</v>
+        <v>0.4444378109452732</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="X45" t="n">
-        <v>1.695428860028859</v>
+        <v>1.552</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.082996351575456</v>
+        <v>0.07697512437810944</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.4027499999999993</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>35.91503638241239</v>
+        <v>35.98047761194018</v>
       </c>
       <c r="K46" t="n">
-        <v>23.09525755725756</v>
+        <v>22.47199999999999</v>
       </c>
       <c r="L46" t="n">
-        <v>49.95178975098979</v>
+        <v>51.41200000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>31.86642320393802</v>
+        <v>32.29002985074621</v>
       </c>
       <c r="N46" t="n">
-        <v>26.1309865208865</v>
+        <v>26.18000000000002</v>
       </c>
       <c r="O46" t="n">
-        <v>36.8756592665676</v>
+        <v>37.316</v>
       </c>
       <c r="P46" t="n">
-        <v>11.28386008523444</v>
+        <v>10.64666666666666</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.258671428571432</v>
+        <v>5.812000000000004</v>
       </c>
       <c r="R46" t="n">
-        <v>15.70930339690409</v>
+        <v>15.256</v>
       </c>
       <c r="S46" t="n">
-        <v>3.84949485903813</v>
+        <v>3.644457711442773</v>
       </c>
       <c r="T46" t="n">
-        <v>1.036</v>
+        <v>0.9360000000000003</v>
       </c>
       <c r="U46" t="n">
-        <v>7.217963510308338</v>
+        <v>6.975999999999998</v>
       </c>
       <c r="V46" t="n">
-        <v>1.102162520729684</v>
+        <v>1.026527363184079</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="X46" t="n">
-        <v>2.897495238095237</v>
+        <v>2.699999999999998</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1353067993366499</v>
+        <v>0.1254129353233831</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.6060000000000009</v>
+        <v>0.5800000000000004</v>
       </c>
     </row>
     <row r="47">
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>58.49718872305137</v>
+        <v>58.59669651741287</v>
       </c>
       <c r="H47" t="n">
-        <v>40.64053333333333</v>
+        <v>41.18400000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>73.7262761904762</v>
+        <v>74.27199999999998</v>
       </c>
       <c r="J47" t="n">
-        <v>28.43821020295339</v>
+        <v>27.82477611940289</v>
       </c>
       <c r="K47" t="n">
-        <v>19.34667619047619</v>
+        <v>19.02000000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>35.66654124024121</v>
+        <v>35.00800000000003</v>
       </c>
       <c r="M47" t="n">
-        <v>4.140748582484395</v>
+        <v>4.100537313432827</v>
       </c>
       <c r="N47" t="n">
-        <v>0.9332008140008138</v>
+        <v>0.8559999999999998</v>
       </c>
       <c r="O47" t="n">
-        <v>9.549561904761909</v>
+        <v>9.375999999999994</v>
       </c>
       <c r="P47" t="n">
-        <v>0.7409761009765977</v>
+        <v>0.7334328358208941</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>2.9022</v>
+        <v>2.952</v>
       </c>
       <c r="S47" t="n">
-        <v>0.126965008291874</v>
+        <v>0.1245174129353233</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.6854522995522988</v>
+        <v>0.6760000000000005</v>
       </c>
       <c r="V47" t="n">
-        <v>0.02236690701753464</v>
+        <v>0.02360199004975114</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0.2052222222222221</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.001256038381674902</v>
+        <v>0.001671641791044777</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="48">
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>10.96336207849641</v>
+        <v>10.60967164179104</v>
       </c>
       <c r="E48" t="n">
-        <v>5.816722222222234</v>
+        <v>5.563999999999997</v>
       </c>
       <c r="F48" t="n">
-        <v>17.34311111111107</v>
+        <v>17.29200000000002</v>
       </c>
       <c r="G48" t="n">
-        <v>14.18135112532574</v>
+        <v>15.64113432835818</v>
       </c>
       <c r="H48" t="n">
-        <v>8.322685714285715</v>
+        <v>9.287999999999997</v>
       </c>
       <c r="I48" t="n">
-        <v>22.35623492063493</v>
+        <v>23.224</v>
       </c>
       <c r="J48" t="n">
-        <v>10.36439286109136</v>
+        <v>10.84493532338308</v>
       </c>
       <c r="K48" t="n">
-        <v>6.30517936507936</v>
+        <v>6.508000000000003</v>
       </c>
       <c r="L48" t="n">
-        <v>15.07384587106935</v>
+        <v>15.176</v>
       </c>
       <c r="M48" t="n">
-        <v>7.037543048074658</v>
+        <v>7.523681592039788</v>
       </c>
       <c r="N48" t="n">
-        <v>4.868470654415662</v>
+        <v>4.891999999999999</v>
       </c>
       <c r="O48" t="n">
-        <v>10.07609457571262</v>
+        <v>10.58</v>
       </c>
       <c r="P48" t="n">
-        <v>4.726027235870837</v>
+        <v>5.214129353233821</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.613422383258297</v>
+        <v>2.923999999999999</v>
       </c>
       <c r="R48" t="n">
-        <v>6.871894077638762</v>
+        <v>7.552</v>
       </c>
       <c r="S48" t="n">
-        <v>3.202531337968644</v>
+        <v>3.483820895522385</v>
       </c>
       <c r="T48" t="n">
-        <v>1.643332764784236</v>
+        <v>1.848</v>
       </c>
       <c r="U48" t="n">
-        <v>5.07617482772495</v>
+        <v>5.259999999999998</v>
       </c>
       <c r="V48" t="n">
-        <v>1.784830019782127</v>
+        <v>1.753512437810943</v>
       </c>
       <c r="W48" t="n">
-        <v>0.7632453441982854</v>
+        <v>0.7240000000000001</v>
       </c>
       <c r="X48" t="n">
-        <v>3.064776747711243</v>
+        <v>3.128000000000001</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.411285360731196</v>
+        <v>0.3669054726368147</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.04773583353939</v>
+        <v>0.9719999999999998</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.538659038142608</v>
+        <v>2.677751243781082</v>
       </c>
       <c r="K49" t="n">
-        <v>1.095079365079365</v>
+        <v>1.252000000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>4.597444444444438</v>
+        <v>4.636000000000002</v>
       </c>
       <c r="M49" t="n">
-        <v>4.50597027560609</v>
+        <v>4.527800995024868</v>
       </c>
       <c r="N49" t="n">
-        <v>2.076142760942758</v>
+        <v>2.132000000000001</v>
       </c>
       <c r="O49" t="n">
-        <v>7.370799999999996</v>
+        <v>7.423999999999999</v>
       </c>
       <c r="P49" t="n">
-        <v>3.77920551212192</v>
+        <v>3.771104477611932</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.849381385281385</v>
+        <v>1.931999999999999</v>
       </c>
       <c r="R49" t="n">
-        <v>6.189999999999994</v>
+        <v>6.288</v>
       </c>
       <c r="S49" t="n">
-        <v>2.873861971886584</v>
+        <v>2.88481592039799</v>
       </c>
       <c r="T49" t="n">
-        <v>1.177903205128205</v>
+        <v>1.192000000000001</v>
       </c>
       <c r="U49" t="n">
-        <v>5.128843019943027</v>
+        <v>5.179999999999996</v>
       </c>
       <c r="V49" t="n">
-        <v>1.763148769380611</v>
+        <v>1.759084577114427</v>
       </c>
       <c r="W49" t="n">
-        <v>0.5732000000000004</v>
+        <v>0.5960000000000005</v>
       </c>
       <c r="X49" t="n">
-        <v>3.367387301587302</v>
+        <v>3.384000000000002</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.438771031787449</v>
+        <v>0.4472636815920394</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.008666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.054936002886003</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>3.292687009397447</v>
+        <v>3.185452736318396</v>
       </c>
       <c r="E50" t="n">
-        <v>1.309600000000003</v>
+        <v>1.244</v>
       </c>
       <c r="F50" t="n">
-        <v>5.806282539682533</v>
+        <v>5.684000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>4.524639055803222</v>
+        <v>4.413273631840785</v>
       </c>
       <c r="H50" t="n">
-        <v>1.975066666666666</v>
+        <v>1.976</v>
       </c>
       <c r="I50" t="n">
-        <v>8.242873160173163</v>
+        <v>8.091999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>3.939514438242789</v>
+        <v>3.861492537313425</v>
       </c>
       <c r="K50" t="n">
-        <v>1.767723698523698</v>
+        <v>1.679999999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>6.715530539830536</v>
+        <v>6.632000000000004</v>
       </c>
       <c r="M50" t="n">
-        <v>3.312298009563675</v>
+        <v>3.252955223880588</v>
       </c>
       <c r="N50" t="n">
-        <v>1.237083728907258</v>
+        <v>1.212000000000001</v>
       </c>
       <c r="O50" t="n">
-        <v>5.725271428571431</v>
+        <v>5.595999999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>2.611615788780955</v>
+        <v>2.612477611940291</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.008507936507936</v>
+        <v>1.004</v>
       </c>
       <c r="R50" t="n">
-        <v>4.761138095238096</v>
+        <v>4.547999999999996</v>
       </c>
       <c r="S50" t="n">
-        <v>2.137800995024872</v>
+        <v>2.087223880597011</v>
       </c>
       <c r="T50" t="n">
-        <v>0.7237916666666662</v>
+        <v>0.7760000000000002</v>
       </c>
       <c r="U50" t="n">
-        <v>4.00700702399691</v>
+        <v>3.887999999999999</v>
       </c>
       <c r="V50" t="n">
-        <v>1.283764822695852</v>
+        <v>1.245134328358207</v>
       </c>
       <c r="W50" t="n">
-        <v>0.2784923076923077</v>
+        <v>0.26</v>
       </c>
       <c r="X50" t="n">
-        <v>2.385090476190476</v>
+        <v>2.284000000000002</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.3265765583596797</v>
+        <v>0.3098905472636813</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.8990407150898629</v>
+        <v>0.8279999999999998</v>
       </c>
     </row>
     <row r="51">
@@ -4666,58 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01569485903814261</v>
+        <v>0.07040796019900492</v>
       </c>
       <c r="K51" t="n">
-        <v>0.004000000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01733333333333333</v>
+        <v>0.144</v>
       </c>
       <c r="M51" t="n">
-        <v>2.322927584300718</v>
+        <v>2.207681592039795</v>
       </c>
       <c r="N51" t="n">
-        <v>0.7480074074074061</v>
+        <v>0.6680000000000004</v>
       </c>
       <c r="O51" t="n">
-        <v>4.247111111111112</v>
+        <v>4.004</v>
       </c>
       <c r="P51" t="n">
-        <v>2.030986954118291</v>
+        <v>1.954527363184079</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7800000000000006</v>
+        <v>0.7240000000000005</v>
       </c>
       <c r="R51" t="n">
-        <v>3.653500000000005</v>
+        <v>3.631999999999999</v>
       </c>
       <c r="S51" t="n">
-        <v>1.571112603648422</v>
+        <v>1.537611940298505</v>
       </c>
       <c r="T51" t="n">
-        <v>0.4099999999999993</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="U51" t="n">
-        <v>3.088625396825395</v>
+        <v>3.064000000000001</v>
       </c>
       <c r="V51" t="n">
-        <v>0.9947273280064297</v>
+        <v>0.9626069651741287</v>
       </c>
       <c r="W51" t="n">
-        <v>0.2333333333333332</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X51" t="n">
-        <v>2.059</v>
+        <v>2.036</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.2734953802416477</v>
+        <v>0.2676019900497496</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.739999999999999</v>
+        <v>0.7919999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>54.66675190713093</v>
+        <v>54.76517412935308</v>
       </c>
       <c r="N52" t="n">
-        <v>36.07866666666667</v>
+        <v>36.13599999999999</v>
       </c>
       <c r="O52" t="n">
-        <v>70.96257777777784</v>
+        <v>71.05199999999995</v>
       </c>
       <c r="P52" t="n">
-        <v>18.69697921228393</v>
+        <v>18.51956218905472</v>
       </c>
       <c r="Q52" t="n">
-        <v>14.06254765234766</v>
+        <v>14.03200000000001</v>
       </c>
       <c r="R52" t="n">
-        <v>23.04602351537351</v>
+        <v>23.024</v>
       </c>
       <c r="S52" t="n">
-        <v>6.312663618415849</v>
+        <v>6.333154228855718</v>
       </c>
       <c r="T52" t="n">
-        <v>2.648000000000005</v>
+        <v>2.672</v>
       </c>
       <c r="U52" t="n">
-        <v>10.26433044167162</v>
+        <v>10.31199999999999</v>
       </c>
       <c r="V52" t="n">
-        <v>1.811495854063019</v>
+        <v>1.828756218905473</v>
       </c>
       <c r="W52" t="n">
-        <v>0.332</v>
+        <v>0.348</v>
       </c>
       <c r="X52" t="n">
-        <v>3.919288888888889</v>
+        <v>3.96</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.2305572139303464</v>
+        <v>0.2317611940298488</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.8059999999999985</v>
+        <v>0.8119999999999997</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>15.93735942509673</v>
+        <v>17.4032039800995</v>
       </c>
       <c r="E53" t="n">
-        <v>9.258500000000019</v>
+        <v>10.048</v>
       </c>
       <c r="F53" t="n">
-        <v>25.93066666666667</v>
+        <v>27.656</v>
       </c>
       <c r="G53" t="n">
-        <v>13.37875908552475</v>
+        <v>13.23932338308456</v>
       </c>
       <c r="H53" t="n">
-        <v>7.994285714285716</v>
+        <v>8.095999999999998</v>
       </c>
       <c r="I53" t="n">
-        <v>19.00213333333334</v>
+        <v>18.85599999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>9.682068501205794</v>
+        <v>9.376019900497504</v>
       </c>
       <c r="K53" t="n">
-        <v>6.270276190476184</v>
+        <v>6.004000000000006</v>
       </c>
       <c r="L53" t="n">
-        <v>13.11797875457875</v>
+        <v>12.82</v>
       </c>
       <c r="M53" t="n">
-        <v>6.308335878058911</v>
+        <v>6.652258706467653</v>
       </c>
       <c r="N53" t="n">
-        <v>4.241468837915296</v>
+        <v>4.324000000000002</v>
       </c>
       <c r="O53" t="n">
-        <v>8.559291933376244</v>
+        <v>9.363999999999994</v>
       </c>
       <c r="P53" t="n">
-        <v>4.325466217682889</v>
+        <v>4.657293532338302</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.572134504470418</v>
+        <v>2.844</v>
       </c>
       <c r="R53" t="n">
-        <v>6.498997799733661</v>
+        <v>6.516</v>
       </c>
       <c r="S53" t="n">
-        <v>2.873656296663577</v>
+        <v>3.005850746268653</v>
       </c>
       <c r="T53" t="n">
-        <v>1.556717424242425</v>
+        <v>1.464</v>
       </c>
       <c r="U53" t="n">
-        <v>4.55628686825439</v>
+        <v>4.816000000000004</v>
       </c>
       <c r="V53" t="n">
-        <v>1.711197914162792</v>
+        <v>1.671621890547263</v>
       </c>
       <c r="W53" t="n">
-        <v>0.5871502504031917</v>
+        <v>0.5280000000000001</v>
       </c>
       <c r="X53" t="n">
-        <v>3.005538652473148</v>
+        <v>2.992</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.3944392811579973</v>
+        <v>0.3533731343283574</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.007540643450478</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="54">
@@ -4906,67 +4906,67 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2.154059189677089</v>
+        <v>2.117572139303467</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7486656676656679</v>
+        <v>0.7799999999999998</v>
       </c>
       <c r="I54" t="n">
-        <v>3.942263924963927</v>
+        <v>3.86</v>
       </c>
       <c r="J54" t="n">
-        <v>1.940875199292055</v>
+        <v>1.978587064676615</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7073845103698043</v>
+        <v>0.7280000000000005</v>
       </c>
       <c r="L54" t="n">
-        <v>3.441821207985912</v>
+        <v>3.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.691148571976695</v>
+        <v>1.673452736318407</v>
       </c>
       <c r="N54" t="n">
-        <v>0.5433698570607237</v>
+        <v>0.488</v>
       </c>
       <c r="O54" t="n">
-        <v>3.198880765639589</v>
+        <v>3.164000000000001</v>
       </c>
       <c r="P54" t="n">
-        <v>1.429869025244148</v>
+        <v>1.43625870646766</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3890900432900434</v>
+        <v>0.3839999999999999</v>
       </c>
       <c r="R54" t="n">
-        <v>2.761671717171718</v>
+        <v>2.791999999999999</v>
       </c>
       <c r="S54" t="n">
-        <v>1.203129340311428</v>
+        <v>1.229592039800995</v>
       </c>
       <c r="T54" t="n">
-        <v>0.2994584601672834</v>
+        <v>0.28</v>
       </c>
       <c r="U54" t="n">
-        <v>2.39518498168498</v>
+        <v>2.456</v>
       </c>
       <c r="V54" t="n">
-        <v>0.7362638057906706</v>
+        <v>0.7307263681592032</v>
       </c>
       <c r="W54" t="n">
-        <v>0.05000000000000001</v>
+        <v>0.1360000000000001</v>
       </c>
       <c r="X54" t="n">
-        <v>1.700382903371139</v>
+        <v>1.691999999999999</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.1963644673880401</v>
+        <v>0.2002786069651728</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.6190384615384624</v>
+        <v>0.6040000000000005</v>
       </c>
     </row>
     <row r="55">
@@ -4980,76 +4980,76 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.051462686567164</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="G55" t="n">
-        <v>4.812711904761894</v>
+        <v>4.755323383084567</v>
       </c>
       <c r="H55" t="n">
-        <v>2.145625396825397</v>
+        <v>2.204000000000001</v>
       </c>
       <c r="I55" t="n">
-        <v>8.196387445887446</v>
+        <v>8.212000000000003</v>
       </c>
       <c r="J55" t="n">
-        <v>4.120926451591735</v>
+        <v>4.177074626865669</v>
       </c>
       <c r="K55" t="n">
-        <v>1.916523964923965</v>
+        <v>1.847999999999999</v>
       </c>
       <c r="L55" t="n">
-        <v>6.836506970806971</v>
+        <v>6.956</v>
       </c>
       <c r="M55" t="n">
-        <v>3.626872359315632</v>
+        <v>3.585592039800984</v>
       </c>
       <c r="N55" t="n">
-        <v>1.6034212489036</v>
+        <v>1.572</v>
       </c>
       <c r="O55" t="n">
-        <v>5.741848148148152</v>
+        <v>5.747999999999998</v>
       </c>
       <c r="P55" t="n">
-        <v>2.973774785524029</v>
+        <v>2.951283582089547</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.150060317460318</v>
+        <v>1.056</v>
       </c>
       <c r="R55" t="n">
-        <v>5.104758730158725</v>
+        <v>5.139999999999995</v>
       </c>
       <c r="S55" t="n">
-        <v>2.269257687751705</v>
+        <v>2.265432835820879</v>
       </c>
       <c r="T55" t="n">
-        <v>0.9937893939393939</v>
+        <v>0.98</v>
       </c>
       <c r="U55" t="n">
-        <v>4.090823635101282</v>
+        <v>3.972000000000001</v>
       </c>
       <c r="V55" t="n">
-        <v>1.419140894925966</v>
+        <v>1.358407960199004</v>
       </c>
       <c r="W55" t="n">
-        <v>0.4118923076923077</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X55" t="n">
-        <v>2.494419047619048</v>
+        <v>2.420000000000002</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.3501483527758769</v>
+        <v>0.3513830845771136</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.9678310735945368</v>
+        <v>0.9799999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -5081,58 +5081,58 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>53.7474306088463</v>
+        <v>55.45060696517404</v>
       </c>
       <c r="K56" t="n">
-        <v>39.71540735190738</v>
+        <v>39.72799999999997</v>
       </c>
       <c r="L56" t="n">
-        <v>70.74190824360819</v>
+        <v>71.37199999999999</v>
       </c>
       <c r="M56" t="n">
-        <v>18.73383354508885</v>
+        <v>19.07126368159204</v>
       </c>
       <c r="N56" t="n">
-        <v>14.22028763197586</v>
+        <v>14.18</v>
       </c>
       <c r="O56" t="n">
-        <v>23.07080206967096</v>
+        <v>23.70800000000001</v>
       </c>
       <c r="P56" t="n">
-        <v>6.72136778703145</v>
+        <v>6.697890547263671</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.841619047619048</v>
+        <v>2.936</v>
       </c>
       <c r="R56" t="n">
-        <v>11.01462141516625</v>
+        <v>10.70400000000001</v>
       </c>
       <c r="S56" t="n">
-        <v>2.258168925215182</v>
+        <v>2.2963383084577</v>
       </c>
       <c r="T56" t="n">
-        <v>0.4339999999999996</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="U56" t="n">
-        <v>4.909392063492063</v>
+        <v>4.892000000000001</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6838606965174134</v>
+        <v>0.6894925373134327</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>1.828088888888888</v>
+        <v>1.823999999999999</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.08223548922056372</v>
+        <v>0.08338308457711444</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.4121666666666664</v>
+        <v>0.4400000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>47.27578683868175</v>
+        <v>45.38969154228839</v>
       </c>
       <c r="K57" t="n">
-        <v>30.03746216746217</v>
+        <v>29.788</v>
       </c>
       <c r="L57" t="n">
-        <v>62.57056277056273</v>
+        <v>61.50000000000004</v>
       </c>
       <c r="M57" t="n">
-        <v>31.68906434236476</v>
+        <v>31.7169154228855</v>
       </c>
       <c r="N57" t="n">
-        <v>25.44696487586488</v>
+        <v>25.64399999999999</v>
       </c>
       <c r="O57" t="n">
-        <v>36.67021573471822</v>
+        <v>36.80000000000003</v>
       </c>
       <c r="P57" t="n">
-        <v>7.219019679380863</v>
+        <v>7.766825870646763</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.544666666666666</v>
+        <v>2.931999999999999</v>
       </c>
       <c r="R57" t="n">
-        <v>13.02684999999999</v>
+        <v>13.436</v>
       </c>
       <c r="S57" t="n">
-        <v>1.80905406301824</v>
+        <v>2.038069651741291</v>
       </c>
       <c r="T57" t="n">
-        <v>0.1423333333333332</v>
+        <v>0.2279999999999999</v>
       </c>
       <c r="U57" t="n">
-        <v>4.7742253968254</v>
+        <v>4.983999999999998</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3557000552791584</v>
+        <v>0.4509850746268653</v>
       </c>
       <c r="W57" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="X57" t="n">
-        <v>1.684499999999999</v>
+        <v>1.847999999999999</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.03084880694209036</v>
+        <v>0.0445771144278605</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.2499999999999996</v>
+        <v>0.2439999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>3.321748922056378</v>
+        <v>3.130845771144267</v>
       </c>
       <c r="E58" t="n">
-        <v>1.300000000000001</v>
+        <v>1.259999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>5.779688888888895</v>
+        <v>5.548000000000002</v>
       </c>
       <c r="G58" t="n">
-        <v>4.523437278973088</v>
+        <v>4.548278606965165</v>
       </c>
       <c r="H58" t="n">
-        <v>2.104009523809524</v>
+        <v>2.076000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>8.263939826839831</v>
+        <v>8.304</v>
       </c>
       <c r="J58" t="n">
-        <v>3.942692200226522</v>
+        <v>3.910965174129347</v>
       </c>
       <c r="K58" t="n">
-        <v>1.733312154512153</v>
+        <v>1.719999999999999</v>
       </c>
       <c r="L58" t="n">
-        <v>6.758921785621784</v>
+        <v>6.8</v>
       </c>
       <c r="M58" t="n">
-        <v>3.327540316547276</v>
+        <v>3.30618905472636</v>
       </c>
       <c r="N58" t="n">
-        <v>1.298913358536888</v>
+        <v>1.324</v>
       </c>
       <c r="O58" t="n">
-        <v>5.70466878306878</v>
+        <v>5.712000000000002</v>
       </c>
       <c r="P58" t="n">
-        <v>2.635179415093839</v>
+        <v>2.675661691542282</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.123736507936508</v>
+        <v>1.048</v>
       </c>
       <c r="R58" t="n">
-        <v>4.75138253968254</v>
+        <v>4.699999999999998</v>
       </c>
       <c r="S58" t="n">
-        <v>2.176385666903572</v>
+        <v>2.153452736318402</v>
       </c>
       <c r="T58" t="n">
-        <v>0.8764583333333327</v>
+        <v>0.804</v>
       </c>
       <c r="U58" t="n">
-        <v>4.05554353193342</v>
+        <v>3.972</v>
       </c>
       <c r="V58" t="n">
-        <v>1.292110127915785</v>
+        <v>1.265412935323382</v>
       </c>
       <c r="W58" t="n">
-        <v>0.2974923076923077</v>
+        <v>0.2519999999999999</v>
       </c>
       <c r="X58" t="n">
-        <v>2.387960317460317</v>
+        <v>2.344000000000001</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.3345436870021814</v>
+        <v>0.3298706467661687</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.8828982168314163</v>
+        <v>0.8959999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>40.06340067676437</v>
+        <v>41.42728358208952</v>
       </c>
       <c r="K59" t="n">
-        <v>25.46491097976097</v>
+        <v>26.34</v>
       </c>
       <c r="L59" t="n">
-        <v>55.78103653149969</v>
+        <v>57.67599999999997</v>
       </c>
       <c r="M59" t="n">
-        <v>18.76209412937282</v>
+        <v>19.58429850746266</v>
       </c>
       <c r="N59" t="n">
-        <v>14.60327185516009</v>
+        <v>15.14799999999999</v>
       </c>
       <c r="O59" t="n">
-        <v>23.03755127602016</v>
+        <v>23.50800000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>9.430884288699938</v>
+        <v>9.201711442786065</v>
       </c>
       <c r="Q59" t="n">
-        <v>6.361738163604383</v>
+        <v>5.708000000000002</v>
       </c>
       <c r="R59" t="n">
-        <v>12.63246226490817</v>
+        <v>12.916</v>
       </c>
       <c r="S59" t="n">
-        <v>4.508282704636427</v>
+        <v>4.368278606965168</v>
       </c>
       <c r="T59" t="n">
-        <v>1.867150793650795</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="U59" t="n">
-        <v>7.43383413303517</v>
+        <v>7.12</v>
       </c>
       <c r="V59" t="n">
-        <v>1.646170519695892</v>
+        <v>1.646547263681593</v>
       </c>
       <c r="W59" t="n">
-        <v>0.377090909090909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X59" t="n">
-        <v>3.452945068369211</v>
+        <v>3.527999999999999</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.2839412967629373</v>
+        <v>0.2863084577114415</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.9732611111111109</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1.576628524046431</v>
+        <v>1.5702487562189</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5320000000000006</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>3.071111111111106</v>
+        <v>2.94</v>
       </c>
       <c r="G60" t="n">
-        <v>2.162623573386251</v>
+        <v>2.079203980099496</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7241785103785107</v>
+        <v>0.7200000000000003</v>
       </c>
       <c r="I60" t="n">
-        <v>3.850844444444444</v>
+        <v>3.820000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>1.850047022208406</v>
+        <v>1.810049751243781</v>
       </c>
       <c r="K60" t="n">
-        <v>0.664385477920772</v>
+        <v>0.6200000000000006</v>
       </c>
       <c r="L60" t="n">
-        <v>3.368026810226807</v>
+        <v>3.360000000000001</v>
       </c>
       <c r="M60" t="n">
-        <v>1.615649526908994</v>
+        <v>1.588656716417908</v>
       </c>
       <c r="N60" t="n">
-        <v>0.5156245031656794</v>
+        <v>0.5400000000000001</v>
       </c>
       <c r="O60" t="n">
-        <v>2.985794522253348</v>
+        <v>3</v>
       </c>
       <c r="P60" t="n">
-        <v>1.356644710310878</v>
+        <v>1.345671641791044</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.38595670995671</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="R60" t="n">
-        <v>2.559012698412701</v>
+        <v>2.62</v>
       </c>
       <c r="S60" t="n">
-        <v>1.150175309599188</v>
+        <v>1.120796019900496</v>
       </c>
       <c r="T60" t="n">
-        <v>0.251775498684322</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="U60" t="n">
-        <v>2.129580952380951</v>
+        <v>2.180000000000001</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6930844349680172</v>
+        <v>0.6786069651741288</v>
       </c>
       <c r="W60" t="n">
-        <v>0.02933333333333333</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="X60" t="n">
-        <v>1.501352380952381</v>
+        <v>1.58</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.1921906578220003</v>
+        <v>0.1889552238805968</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.6005000000000009</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="61">
@@ -5487,67 +5487,67 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>54.30054199744414</v>
+        <v>55.03607960198991</v>
       </c>
       <c r="H61" t="n">
-        <v>37.29428658008658</v>
+        <v>36.60800000000003</v>
       </c>
       <c r="I61" t="n">
-        <v>71.09319653679647</v>
+        <v>71.27599999999998</v>
       </c>
       <c r="J61" t="n">
-        <v>19.12848656618548</v>
+        <v>19.18258706467662</v>
       </c>
       <c r="K61" t="n">
-        <v>13.91266200096199</v>
+        <v>14.03599999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>23.32641169548576</v>
+        <v>23.28400000000001</v>
       </c>
       <c r="M61" t="n">
-        <v>7.533999395923946</v>
+        <v>6.869950248756209</v>
       </c>
       <c r="N61" t="n">
-        <v>2.998365896589233</v>
+        <v>2.803999999999999</v>
       </c>
       <c r="O61" t="n">
-        <v>11.79242274308673</v>
+        <v>11.2</v>
       </c>
       <c r="P61" t="n">
-        <v>2.635841592661982</v>
+        <v>2.666388059701482</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.4615212121212121</v>
+        <v>0.4599999999999999</v>
       </c>
       <c r="R61" t="n">
-        <v>5.93593051948052</v>
+        <v>6.020000000000005</v>
       </c>
       <c r="S61" t="n">
-        <v>0.9780278488509824</v>
+        <v>0.9970348258706447</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>2.773783068783068</v>
+        <v>2.863999999999999</v>
       </c>
       <c r="V61" t="n">
-        <v>0.2921286898839136</v>
+        <v>0.2968358208955223</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>1.278488888888889</v>
+        <v>1.216000000000001</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.03673372997925224</v>
+        <v>0.03741293532338298</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.3008333333333328</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>24.92103710021309</v>
+        <v>24.52109452736305</v>
       </c>
       <c r="H62" t="n">
-        <v>15.35013333333334</v>
+        <v>15.04400000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>36.18117619047618</v>
+        <v>35.72399999999998</v>
       </c>
       <c r="J62" t="n">
-        <v>29.89140674304494</v>
+        <v>28.34899502487555</v>
       </c>
       <c r="K62" t="n">
-        <v>21.50026272431271</v>
+        <v>20.67600000000002</v>
       </c>
       <c r="L62" t="n">
-        <v>35.93436299996299</v>
+        <v>35.46400000000003</v>
       </c>
       <c r="M62" t="n">
-        <v>12.67946443160573</v>
+        <v>13.49199999999999</v>
       </c>
       <c r="N62" t="n">
-        <v>9.129870148365049</v>
+        <v>10.09999999999999</v>
       </c>
       <c r="O62" t="n">
-        <v>16.30281741993261</v>
+        <v>16.93599999999999</v>
       </c>
       <c r="P62" t="n">
-        <v>7.116009761239795</v>
+        <v>6.59014925373134</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.718242315661474</v>
+        <v>3.652</v>
       </c>
       <c r="R62" t="n">
-        <v>10.17339630396712</v>
+        <v>10.056</v>
       </c>
       <c r="S62" t="n">
-        <v>3.134363655388276</v>
+        <v>3.148557213930346</v>
       </c>
       <c r="T62" t="n">
-        <v>1.200528571428573</v>
+        <v>1.180000000000001</v>
       </c>
       <c r="U62" t="n">
-        <v>5.721801021125234</v>
+        <v>5.571999999999999</v>
       </c>
       <c r="V62" t="n">
-        <v>1.21012844866576</v>
+        <v>1.226069651741292</v>
       </c>
       <c r="W62" t="n">
-        <v>0.08775757575757578</v>
+        <v>0.104</v>
       </c>
       <c r="X62" t="n">
-        <v>2.751997113997114</v>
+        <v>2.735999999999999</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.2062787878787876</v>
+        <v>0.2074626865671637</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.7901666666666658</v>
+        <v>0.7999999999999997</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>54.65634494195691</v>
+        <v>54.01174129353221</v>
       </c>
       <c r="E63" t="n">
-        <v>37.73999999999995</v>
+        <v>37.04000000000003</v>
       </c>
       <c r="F63" t="n">
-        <v>71.43866666666673</v>
+        <v>70.49199999999995</v>
       </c>
       <c r="G63" t="n">
-        <v>19.09101091368552</v>
+        <v>19.08443781094525</v>
       </c>
       <c r="H63" t="n">
-        <v>13.94800000000001</v>
+        <v>13.76000000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>23.70782557997558</v>
+        <v>23.72799999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>7.351121648132588</v>
+        <v>7.208258706467651</v>
       </c>
       <c r="K63" t="n">
-        <v>3.282673015873016</v>
+        <v>3.26</v>
       </c>
       <c r="L63" t="n">
-        <v>12.02763085063085</v>
+        <v>11.22</v>
       </c>
       <c r="M63" t="n">
-        <v>3.256568477245247</v>
+        <v>2.848736318407948</v>
       </c>
       <c r="N63" t="n">
-        <v>0.6438642364171776</v>
+        <v>0.7040000000000005</v>
       </c>
       <c r="O63" t="n">
-        <v>6.493544119889773</v>
+        <v>5.684</v>
       </c>
       <c r="P63" t="n">
-        <v>1.249936394745847</v>
+        <v>1.24123383084577</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.07290000000000002</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="R63" t="n">
-        <v>3.55732087912088</v>
+        <v>3.523999999999998</v>
       </c>
       <c r="S63" t="n">
-        <v>0.4688807786464491</v>
+        <v>0.5027860696517401</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1.735563443963441</v>
+        <v>1.739999999999999</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1547436152570479</v>
+        <v>0.1746467661691541</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.7238000000000003</v>
+        <v>0.7360000000000005</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.02480555555555551</v>
+        <v>0.02612935323383083</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.2124999999999996</v>
+        <v>0.2159999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1.550406301824209</v>
+        <v>1.58682587064676</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4616666666666673</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>3.055111111111104</v>
+        <v>2.968</v>
       </c>
       <c r="G64" t="n">
-        <v>2.132887707262325</v>
+        <v>2.086726368159199</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7241785103785107</v>
+        <v>0.7200000000000003</v>
       </c>
       <c r="I64" t="n">
-        <v>3.853844444444444</v>
+        <v>3.847999999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>1.860550246826059</v>
+        <v>1.823562189054727</v>
       </c>
       <c r="K64" t="n">
-        <v>0.6548299223652168</v>
+        <v>0.5920000000000003</v>
       </c>
       <c r="L64" t="n">
-        <v>3.385748721213425</v>
+        <v>3.360000000000001</v>
       </c>
       <c r="M64" t="n">
-        <v>1.625420671187601</v>
+        <v>1.600079601990048</v>
       </c>
       <c r="N64" t="n">
-        <v>0.5487497512406179</v>
+        <v>0.5680000000000004</v>
       </c>
       <c r="O64" t="n">
-        <v>3.077350077808902</v>
+        <v>3.056</v>
       </c>
       <c r="P64" t="n">
-        <v>1.363617070731</v>
+        <v>1.355701492537313</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.38595670995671</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="R64" t="n">
-        <v>2.66834632034632</v>
+        <v>2.647999999999999</v>
       </c>
       <c r="S64" t="n">
-        <v>1.160367681075142</v>
+        <v>1.129432835820894</v>
       </c>
       <c r="T64" t="n">
-        <v>0.251775498684322</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="U64" t="n">
-        <v>2.278889843489841</v>
+        <v>2.208000000000002</v>
       </c>
       <c r="V64" t="n">
-        <v>0.7000977019663588</v>
+        <v>0.6844577114427853</v>
       </c>
       <c r="W64" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="X64" t="n">
-        <v>1.613847619047619</v>
+        <v>1.607999999999999</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.1949957987838577</v>
+        <v>0.1907661691542286</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.6005000000000009</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="65">
@@ -5837,49 +5837,49 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>68.26177059148684</v>
+        <v>68.08177114427845</v>
       </c>
       <c r="N65" t="n">
-        <v>51.10240000000007</v>
+        <v>51.09599999999998</v>
       </c>
       <c r="O65" t="n">
-        <v>82.00106666666663</v>
+        <v>81.92400000000002</v>
       </c>
       <c r="P65" t="n">
-        <v>15.04121144541839</v>
+        <v>15.03797014925372</v>
       </c>
       <c r="Q65" t="n">
-        <v>8.501866666666668</v>
+        <v>8.516000000000004</v>
       </c>
       <c r="R65" t="n">
-        <v>21.13003706293706</v>
+        <v>21.02</v>
       </c>
       <c r="S65" t="n">
-        <v>3.465226368159191</v>
+        <v>3.509034825870631</v>
       </c>
       <c r="T65" t="n">
-        <v>0.7519999999999986</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="U65" t="n">
-        <v>7.507750793650786</v>
+        <v>7.58</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6970351891336949</v>
+        <v>0.7079999999999984</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>2.216000000000002</v>
+        <v>2.228000000000002</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.06507263681592029</v>
+        <v>0.0659900497512438</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.3681666666666661</v>
+        <v>0.3719999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>16.86287064676612</v>
+        <v>15.77542288557214</v>
       </c>
       <c r="E66" t="n">
-        <v>9.156177777777774</v>
+        <v>8.436000000000002</v>
       </c>
       <c r="F66" t="n">
-        <v>25.78533333333335</v>
+        <v>24.592</v>
       </c>
       <c r="G66" t="n">
-        <v>21.40767572455173</v>
+        <v>21.08547263681582</v>
       </c>
       <c r="H66" t="n">
-        <v>13.38633015873016</v>
+        <v>12.90000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>29.84142936507935</v>
+        <v>29.09599999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>13.25771198256322</v>
+        <v>13.05456716417909</v>
       </c>
       <c r="K66" t="n">
-        <v>9.393126118326121</v>
+        <v>8.879999999999999</v>
       </c>
       <c r="L66" t="n">
-        <v>16.92766372559185</v>
+        <v>16.872</v>
       </c>
       <c r="M66" t="n">
-        <v>7.01151378742538</v>
+        <v>8.005592039800977</v>
       </c>
       <c r="N66" t="n">
-        <v>4.805678590923598</v>
+        <v>5.531999999999999</v>
       </c>
       <c r="O66" t="n">
-        <v>10.09609933761739</v>
+        <v>10.908</v>
       </c>
       <c r="P66" t="n">
-        <v>4.710477284164169</v>
+        <v>4.871940298507453</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.557399672635586</v>
+        <v>2.452000000000001</v>
       </c>
       <c r="R66" t="n">
-        <v>6.886660744305427</v>
+        <v>7.584000000000006</v>
       </c>
       <c r="S66" t="n">
-        <v>3.076441382125701</v>
+        <v>2.958467661691531</v>
       </c>
       <c r="T66" t="n">
-        <v>1.158564413690885</v>
+        <v>1.224000000000001</v>
       </c>
       <c r="U66" t="n">
-        <v>5.016243346243469</v>
+        <v>4.968000000000003</v>
       </c>
       <c r="V66" t="n">
-        <v>1.336087651171693</v>
+        <v>1.398189054726367</v>
       </c>
       <c r="W66" t="n">
-        <v>0.3109585636585636</v>
+        <v>0.2639999999999999</v>
       </c>
       <c r="X66" t="n">
-        <v>2.854735622170117</v>
+        <v>2.791999999999999</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.2520922343273078</v>
+        <v>0.2670248756218901</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.892933696403057</v>
+        <v>0.9359999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -5985,67 +5985,67 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>27.20066892126657</v>
+        <v>27.25974129353223</v>
       </c>
       <c r="H67" t="n">
-        <v>17.01161904761904</v>
+        <v>17.068</v>
       </c>
       <c r="I67" t="n">
-        <v>38.95174523809523</v>
+        <v>39.596</v>
       </c>
       <c r="J67" t="n">
-        <v>17.67508785184712</v>
+        <v>17.14600995024876</v>
       </c>
       <c r="K67" t="n">
-        <v>12.07860630996682</v>
+        <v>11.776</v>
       </c>
       <c r="L67" t="n">
-        <v>22.78599552276958</v>
+        <v>22.764</v>
       </c>
       <c r="M67" t="n">
-        <v>9.236699833881918</v>
+        <v>10.364815920398</v>
       </c>
       <c r="N67" t="n">
-        <v>6.862470970880008</v>
+        <v>7.616000000000007</v>
       </c>
       <c r="O67" t="n">
-        <v>12.22727341733656</v>
+        <v>13.324</v>
       </c>
       <c r="P67" t="n">
-        <v>5.959414803071287</v>
+        <v>6.241373134328341</v>
       </c>
       <c r="Q67" t="n">
-        <v>3.848648594061596</v>
+        <v>3.843999999999999</v>
       </c>
       <c r="R67" t="n">
-        <v>8.309845559480378</v>
+        <v>8.639999999999999</v>
       </c>
       <c r="S67" t="n">
-        <v>3.783546777732929</v>
+        <v>3.649910447761185</v>
       </c>
       <c r="T67" t="n">
-        <v>1.889997635697635</v>
+        <v>1.883999999999999</v>
       </c>
       <c r="U67" t="n">
-        <v>5.668193425956815</v>
+        <v>5.52</v>
       </c>
       <c r="V67" t="n">
-        <v>1.771307742723882</v>
+        <v>1.718388059701491</v>
       </c>
       <c r="W67" t="n">
-        <v>0.4746774891774892</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="X67" t="n">
-        <v>3.313056151671326</v>
+        <v>3.360000000000003</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.3511760042192468</v>
+        <v>0.3254328358208944</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.03134250580612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -6059,76 +6059,76 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.051462686567164</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="G68" t="n">
-        <v>2.74838175787727</v>
+        <v>2.879741293532327</v>
       </c>
       <c r="H68" t="n">
-        <v>1.153190476190477</v>
+        <v>1.168</v>
       </c>
       <c r="I68" t="n">
-        <v>5.123826190476191</v>
+        <v>5.323999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>4.657830457149467</v>
+        <v>4.574228855721382</v>
       </c>
       <c r="K68" t="n">
-        <v>2.127770549820549</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>7.796741728641732</v>
+        <v>7.652000000000006</v>
       </c>
       <c r="M68" t="n">
-        <v>3.855920221164486</v>
+        <v>3.848477611940288</v>
       </c>
       <c r="N68" t="n">
-        <v>1.624788733271085</v>
+        <v>1.608</v>
       </c>
       <c r="O68" t="n">
-        <v>6.556755555555551</v>
+        <v>6.536000000000002</v>
       </c>
       <c r="P68" t="n">
-        <v>3.249620331004896</v>
+        <v>3.222009950248742</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.321615007215007</v>
+        <v>1.304</v>
       </c>
       <c r="R68" t="n">
-        <v>5.465359523809528</v>
+        <v>5.488</v>
       </c>
       <c r="S68" t="n">
-        <v>2.52772423991154</v>
+        <v>2.50999004975123</v>
       </c>
       <c r="T68" t="n">
-        <v>1.028504473304473</v>
+        <v>1.044</v>
       </c>
       <c r="U68" t="n">
-        <v>4.583846053206059</v>
+        <v>4.527999999999997</v>
       </c>
       <c r="V68" t="n">
-        <v>1.506469731208536</v>
+        <v>1.486109452736318</v>
       </c>
       <c r="W68" t="n">
-        <v>0.3912</v>
+        <v>0.3959999999999999</v>
       </c>
       <c r="X68" t="n">
-        <v>2.781730158730158</v>
+        <v>2.751999999999998</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.376249290407653</v>
+        <v>0.3860497512437807</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.9825558749257276</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="69">
@@ -6151,67 +6151,67 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>59.34406799336645</v>
+        <v>59.16646766169147</v>
       </c>
       <c r="H69" t="n">
-        <v>42.97360000000003</v>
+        <v>43.37200000000004</v>
       </c>
       <c r="I69" t="n">
-        <v>74.07577619047623</v>
+        <v>74.42399999999995</v>
       </c>
       <c r="J69" t="n">
-        <v>28.28928199215552</v>
+        <v>27.57568159203976</v>
       </c>
       <c r="K69" t="n">
-        <v>18.9614095238095</v>
+        <v>18.64800000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>35.56556504976503</v>
+        <v>34.84400000000003</v>
       </c>
       <c r="M69" t="n">
-        <v>4.079952878464814</v>
+        <v>4.005512437810941</v>
       </c>
       <c r="N69" t="n">
-        <v>0.959223036223036</v>
+        <v>0.9080000000000001</v>
       </c>
       <c r="O69" t="n">
-        <v>9.978028571428574</v>
+        <v>9.891999999999998</v>
       </c>
       <c r="P69" t="n">
-        <v>0.6931432098765433</v>
+        <v>0.685731343283582</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.03066666666666666</v>
+        <v>0.004</v>
       </c>
       <c r="R69" t="n">
-        <v>2.63653333333333</v>
+        <v>2.675999999999998</v>
       </c>
       <c r="S69" t="n">
-        <v>0.1249407960199004</v>
+        <v>0.1306069651741292</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0.6652427757427747</v>
+        <v>0.6680000000000007</v>
       </c>
       <c r="V69" t="n">
-        <v>0.02114558314148439</v>
+        <v>0.02199004975124374</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0.2052222222222221</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.001814971930160688</v>
+        <v>0.002606965174129346</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="70">
@@ -6234,67 +6234,67 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.0544278606965172</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="J70" t="n">
-        <v>4.896327209300951</v>
+        <v>4.736477611940291</v>
       </c>
       <c r="K70" t="n">
-        <v>2.321313395863395</v>
+        <v>2.212000000000002</v>
       </c>
       <c r="L70" t="n">
-        <v>7.936972801272802</v>
+        <v>8.084000000000005</v>
       </c>
       <c r="M70" t="n">
-        <v>4.253011798152089</v>
+        <v>4.319900497512428</v>
       </c>
       <c r="N70" t="n">
-        <v>1.903848436748437</v>
+        <v>1.912</v>
       </c>
       <c r="O70" t="n">
-        <v>7.341970899470903</v>
+        <v>7.327999999999998</v>
       </c>
       <c r="P70" t="n">
-        <v>3.482697827600798</v>
+        <v>3.529751243781077</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.517865079365079</v>
+        <v>1.468</v>
       </c>
       <c r="R70" t="n">
-        <v>5.792401587301586</v>
+        <v>5.940000000000001</v>
       </c>
       <c r="S70" t="n">
-        <v>2.83635850114506</v>
+        <v>2.813074626865661</v>
       </c>
       <c r="T70" t="n">
-        <v>1.173054143079144</v>
+        <v>1.108</v>
       </c>
       <c r="U70" t="n">
-        <v>4.869320923520919</v>
+        <v>4.868000000000002</v>
       </c>
       <c r="V70" t="n">
-        <v>1.656010818921265</v>
+        <v>1.666825870646766</v>
       </c>
       <c r="W70" t="n">
-        <v>0.5680000000000004</v>
+        <v>0.5880000000000005</v>
       </c>
       <c r="X70" t="n">
-        <v>3.107201587301586</v>
+        <v>3.076</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.4153160481309722</v>
+        <v>0.406467661691541</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>1.078144733044734</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="71">
@@ -6326,58 +6326,58 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1901094527363184</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2133333333333333</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>17.37376229961307</v>
+        <v>17.49243781094527</v>
       </c>
       <c r="N71" t="n">
-        <v>9.635100000000001</v>
+        <v>9.812000000000001</v>
       </c>
       <c r="O71" t="n">
-        <v>26.67422222222228</v>
+        <v>26.58400000000001</v>
       </c>
       <c r="P71" t="n">
-        <v>12.0565196241017</v>
+        <v>12.15128358208954</v>
       </c>
       <c r="Q71" t="n">
-        <v>7.437333333333333</v>
+        <v>7.439999999999999</v>
       </c>
       <c r="R71" t="n">
-        <v>17.03566666666665</v>
+        <v>17.17999999999999</v>
       </c>
       <c r="S71" t="n">
-        <v>8.207054185159777</v>
+        <v>8.164477611940287</v>
       </c>
       <c r="T71" t="n">
-        <v>5.166545238095236</v>
+        <v>5.14</v>
       </c>
       <c r="U71" t="n">
-        <v>11.37152087117675</v>
+        <v>11.52</v>
       </c>
       <c r="V71" t="n">
-        <v>4.138163460582449</v>
+        <v>4.162646766169148</v>
       </c>
       <c r="W71" t="n">
-        <v>2.380970862470863</v>
+        <v>2.400000000000002</v>
       </c>
       <c r="X71" t="n">
-        <v>6.148974037074038</v>
+        <v>6.079999999999997</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.8801676823883352</v>
+        <v>0.9166965174129338</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.1957079365079365</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.821412589603379</v>
+        <v>1.988</v>
       </c>
     </row>
     <row r="72">
@@ -6409,58 +6409,58 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>17.24879836886992</v>
+        <v>17.27070646766168</v>
       </c>
       <c r="K72" t="n">
-        <v>9.582918966218964</v>
+        <v>9.404</v>
       </c>
       <c r="L72" t="n">
-        <v>26.2087262563145</v>
+        <v>26.12399999999998</v>
       </c>
       <c r="M72" t="n">
-        <v>12.60367997220476</v>
+        <v>12.49986069651739</v>
       </c>
       <c r="N72" t="n">
-        <v>7.523452910052914</v>
+        <v>7.367999999999996</v>
       </c>
       <c r="O72" t="n">
-        <v>17.65363169286853</v>
+        <v>17.48000000000001</v>
       </c>
       <c r="P72" t="n">
-        <v>9.103916190254742</v>
+        <v>8.778208955223873</v>
       </c>
       <c r="Q72" t="n">
-        <v>5.623609414575633</v>
+        <v>5.271999999999996</v>
       </c>
       <c r="R72" t="n">
-        <v>12.50283305800397</v>
+        <v>12.22</v>
       </c>
       <c r="S72" t="n">
-        <v>5.669568255967635</v>
+        <v>5.78443781094526</v>
       </c>
       <c r="T72" t="n">
-        <v>3.426065466154173</v>
+        <v>3.311999999999999</v>
       </c>
       <c r="U72" t="n">
-        <v>7.998628398791197</v>
+        <v>8.351999999999993</v>
       </c>
       <c r="V72" t="n">
-        <v>2.807401115670138</v>
+        <v>2.995880597014916</v>
       </c>
       <c r="W72" t="n">
-        <v>1.499398412698413</v>
+        <v>1.599999999999999</v>
       </c>
       <c r="X72" t="n">
-        <v>4.346278146693902</v>
+        <v>4.528000000000002</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.6134258065633145</v>
+        <v>0.6338905472636804</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.320117549340476</v>
+        <v>1.404</v>
       </c>
     </row>
   </sheetData>
